--- a/BackTest/2019-10-11 BackTest TRUE.xlsx
+++ b/BackTest/2019-10-11 BackTest TRUE.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>19</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-15.78947368421053</v>
+      </c>
       <c r="L12" t="n">
         <v>341.5</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>20</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-20</v>
+      </c>
       <c r="L13" t="n">
         <v>341.1</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>23</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-15.78947368421053</v>
+      </c>
       <c r="L14" t="n">
         <v>340.4</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>28</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-60</v>
+      </c>
       <c r="L15" t="n">
         <v>339.6</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>37</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-68</v>
+      </c>
       <c r="L16" t="n">
         <v>337.5</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>38</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-69.23076923076923</v>
+      </c>
       <c r="L17" t="n">
         <v>335.7</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>57</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>2.222222222222222</v>
+      </c>
       <c r="L18" t="n">
         <v>335.8</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>57</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>4.545454545454546</v>
+      </c>
       <c r="L19" t="n">
         <v>335.9</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>61</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>4.545454545454546</v>
+      </c>
       <c r="L20" t="n">
         <v>336.5</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>73</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-14.81481481481481</v>
+      </c>
       <c r="L21" t="n">
         <v>335.5</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>85</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>7.692307692307693</v>
+      </c>
       <c r="L22" t="n">
         <v>335.9</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>98</v>
       </c>
       <c r="K23" t="n">
-        <v>-12.24489795918367</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L23" t="n">
         <v>335.1</v>
@@ -1466,7 +1488,7 @@
         <v>99</v>
       </c>
       <c r="K24" t="n">
-        <v>-13.13131313131313</v>
+        <v>-1.408450704225352</v>
       </c>
       <c r="L24" t="n">
         <v>334.5</v>
@@ -1515,7 +1537,7 @@
         <v>101</v>
       </c>
       <c r="K25" t="n">
-        <v>-11.34020618556701</v>
+        <v>9.375</v>
       </c>
       <c r="L25" t="n">
         <v>334.2</v>
@@ -1564,7 +1586,7 @@
         <v>112</v>
       </c>
       <c r="K26" t="n">
-        <v>-3.846153846153846</v>
+        <v>24.32432432432433</v>
       </c>
       <c r="L26" t="n">
         <v>335.9</v>
@@ -1613,7 +1635,7 @@
         <v>113</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.9900990099009901</v>
+        <v>-3.571428571428571</v>
       </c>
       <c r="L27" t="n">
         <v>337.6</v>
@@ -1662,7 +1684,7 @@
         <v>114</v>
       </c>
       <c r="K28" t="n">
-        <v>-1.96078431372549</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L28" t="n">
         <v>337.3</v>
@@ -1711,7 +1733,7 @@
         <v>114</v>
       </c>
       <c r="K29" t="n">
-        <v>-1.96078431372549</v>
+        <v>-13.20754716981132</v>
       </c>
       <c r="L29" t="n">
         <v>337</v>
@@ -1760,7 +1782,7 @@
         <v>114</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.9900990099009901</v>
+        <v>12.19512195121951</v>
       </c>
       <c r="L30" t="n">
         <v>336.3</v>
@@ -1809,7 +1831,7 @@
         <v>114</v>
       </c>
       <c r="K31" t="n">
-        <v>-5.154639175257731</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L31" t="n">
         <v>336.8</v>
@@ -1860,7 +1882,7 @@
         <v>117</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L32" t="n">
         <v>336.4</v>
@@ -1911,7 +1933,7 @@
         <v>121</v>
       </c>
       <c r="K33" t="n">
-        <v>4.95049504950495</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L33" t="n">
         <v>337.7</v>
@@ -1962,7 +1984,7 @@
         <v>121</v>
       </c>
       <c r="K34" t="n">
-        <v>8.163265306122449</v>
+        <v>80</v>
       </c>
       <c r="L34" t="n">
         <v>339.1</v>
@@ -2013,7 +2035,7 @@
         <v>122</v>
       </c>
       <c r="K35" t="n">
-        <v>12.76595744680851</v>
+        <v>40</v>
       </c>
       <c r="L35" t="n">
         <v>340.6</v>
@@ -2064,7 +2086,7 @@
         <v>124</v>
       </c>
       <c r="K36" t="n">
-        <v>21.83908045977012</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L36" t="n">
         <v>340.8</v>
@@ -2115,7 +2137,7 @@
         <v>128</v>
       </c>
       <c r="K37" t="n">
-        <v>17.77777777777778</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>340.7</v>
@@ -2166,7 +2188,7 @@
         <v>137</v>
       </c>
       <c r="K38" t="n">
-        <v>7.5</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L38" t="n">
         <v>341.6</v>
@@ -2217,7 +2239,7 @@
         <v>139</v>
       </c>
       <c r="K39" t="n">
-        <v>9.75609756097561</v>
+        <v>44</v>
       </c>
       <c r="L39" t="n">
         <v>342.7</v>
@@ -2268,7 +2290,7 @@
         <v>139</v>
       </c>
       <c r="K40" t="n">
-        <v>5.128205128205128</v>
+        <v>44</v>
       </c>
       <c r="L40" t="n">
         <v>343.8</v>
@@ -2319,7 +2341,7 @@
         <v>140</v>
       </c>
       <c r="K41" t="n">
-        <v>25.37313432835821</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L41" t="n">
         <v>345</v>
@@ -2370,7 +2392,7 @@
         <v>141</v>
       </c>
       <c r="K42" t="n">
-        <v>10.71428571428571</v>
+        <v>30</v>
       </c>
       <c r="L42" t="n">
         <v>346</v>
@@ -2421,7 +2443,7 @@
         <v>141</v>
       </c>
       <c r="K43" t="n">
-        <v>44.18604651162791</v>
+        <v>30</v>
       </c>
       <c r="L43" t="n">
         <v>346.6</v>
@@ -2472,7 +2494,7 @@
         <v>142</v>
       </c>
       <c r="K44" t="n">
-        <v>48.83720930232558</v>
+        <v>40</v>
       </c>
       <c r="L44" t="n">
         <v>347.3</v>
@@ -2523,7 +2545,7 @@
         <v>142</v>
       </c>
       <c r="K45" t="n">
-        <v>56.09756097560976</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L45" t="n">
         <v>348.1</v>
@@ -2574,7 +2596,7 @@
         <v>144</v>
       </c>
       <c r="K46" t="n">
-        <v>43.75</v>
+        <v>100</v>
       </c>
       <c r="L46" t="n">
         <v>349.3</v>
@@ -2625,7 +2647,7 @@
         <v>144</v>
       </c>
       <c r="K47" t="n">
-        <v>48.38709677419355</v>
+        <v>100</v>
       </c>
       <c r="L47" t="n">
         <v>350.9</v>
@@ -2676,7 +2698,7 @@
         <v>145</v>
       </c>
       <c r="K48" t="n">
-        <v>48.38709677419355</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L48" t="n">
         <v>351.5</v>
@@ -2727,7 +2749,7 @@
         <v>150</v>
       </c>
       <c r="K49" t="n">
-        <v>55.55555555555556</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L49" t="n">
         <v>352.4</v>
@@ -2778,7 +2800,7 @@
         <v>150</v>
       </c>
       <c r="K50" t="n">
-        <v>55.55555555555556</v>
+        <v>80</v>
       </c>
       <c r="L50" t="n">
         <v>353.3</v>
@@ -2829,7 +2851,7 @@
         <v>153</v>
       </c>
       <c r="K51" t="n">
-        <v>43.58974358974359</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L51" t="n">
         <v>353.8</v>
@@ -2880,7 +2902,7 @@
         <v>154</v>
       </c>
       <c r="K52" t="n">
-        <v>35.13513513513514</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L52" t="n">
         <v>354.1</v>
@@ -2931,7 +2953,7 @@
         <v>157</v>
       </c>
       <c r="K53" t="n">
-        <v>16.66666666666666</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L53" t="n">
         <v>354.1</v>
@@ -2982,7 +3004,7 @@
         <v>158</v>
       </c>
       <c r="K54" t="n">
-        <v>13.51351351351351</v>
+        <v>-12.5</v>
       </c>
       <c r="L54" t="n">
         <v>353.9</v>
@@ -3033,7 +3055,7 @@
         <v>160</v>
       </c>
       <c r="K55" t="n">
-        <v>10.52631578947368</v>
+        <v>-37.5</v>
       </c>
       <c r="L55" t="n">
         <v>353.5</v>
@@ -3084,7 +3106,7 @@
         <v>163</v>
       </c>
       <c r="K56" t="n">
-        <v>7.692307692307693</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L56" t="n">
         <v>352.6</v>
@@ -3135,7 +3157,7 @@
         <v>166</v>
       </c>
       <c r="K57" t="n">
-        <v>26.31578947368421</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L57" t="n">
         <v>352</v>
@@ -3186,7 +3208,7 @@
         <v>166</v>
       </c>
       <c r="K58" t="n">
-        <v>3.448275862068965</v>
+        <v>-62.5</v>
       </c>
       <c r="L58" t="n">
         <v>351.5</v>
@@ -3237,7 +3259,7 @@
         <v>171</v>
       </c>
       <c r="K59" t="n">
-        <v>12.5</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L59" t="n">
         <v>351</v>
@@ -3288,7 +3310,7 @@
         <v>172</v>
       </c>
       <c r="K60" t="n">
-        <v>9.090909090909092</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L60" t="n">
         <v>350.4</v>
@@ -3339,7 +3361,7 @@
         <v>173</v>
       </c>
       <c r="K61" t="n">
-        <v>9.090909090909092</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L61" t="n">
         <v>350.2</v>
@@ -3390,7 +3412,7 @@
         <v>174</v>
       </c>
       <c r="K62" t="n">
-        <v>9.090909090909092</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L62" t="n">
         <v>350.2</v>
@@ -3441,7 +3463,7 @@
         <v>176</v>
       </c>
       <c r="K63" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L63" t="n">
         <v>350.7</v>
@@ -3492,7 +3514,7 @@
         <v>176</v>
       </c>
       <c r="K64" t="n">
-        <v>11.76470588235294</v>
+        <v>50</v>
       </c>
       <c r="L64" t="n">
         <v>351.3</v>
@@ -3543,7 +3565,7 @@
         <v>179</v>
       </c>
       <c r="K65" t="n">
-        <v>18.91891891891892</v>
+        <v>87.5</v>
       </c>
       <c r="L65" t="n">
         <v>352.4</v>
@@ -3594,7 +3616,7 @@
         <v>180</v>
       </c>
       <c r="K66" t="n">
-        <v>16.66666666666666</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="L66" t="n">
         <v>353.9</v>
@@ -3645,7 +3667,7 @@
         <v>184</v>
       </c>
       <c r="K67" t="n">
-        <v>5</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L67" t="n">
         <v>354.7</v>
@@ -3696,7 +3718,7 @@
         <v>185</v>
       </c>
       <c r="K68" t="n">
-        <v>5</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L68" t="n">
         <v>355.4</v>
@@ -3747,7 +3769,7 @@
         <v>187</v>
       </c>
       <c r="K69" t="n">
-        <v>-13.51351351351351</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L69" t="n">
         <v>355.4</v>
@@ -3798,7 +3820,7 @@
         <v>187</v>
       </c>
       <c r="K70" t="n">
-        <v>-13.51351351351351</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>355.5</v>
@@ -3849,7 +3871,7 @@
         <v>188</v>
       </c>
       <c r="K71" t="n">
-        <v>-8.571428571428571</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L71" t="n">
         <v>355.4</v>
@@ -3900,7 +3922,7 @@
         <v>190</v>
       </c>
       <c r="K72" t="n">
-        <v>-11.11111111111111</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L72" t="n">
         <v>355</v>
@@ -3951,7 +3973,7 @@
         <v>190</v>
       </c>
       <c r="K73" t="n">
-        <v>-3.03030303030303</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L73" t="n">
         <v>354.4</v>
@@ -4002,7 +4024,7 @@
         <v>194</v>
       </c>
       <c r="K74" t="n">
-        <v>-11.11111111111111</v>
+        <v>-86.66666666666667</v>
       </c>
       <c r="L74" t="n">
         <v>353.4</v>
@@ -4053,7 +4075,7 @@
         <v>200</v>
       </c>
       <c r="K75" t="n">
-        <v>10</v>
+        <v>-40</v>
       </c>
       <c r="L75" t="n">
         <v>352.7</v>
@@ -4104,7 +4126,7 @@
         <v>200</v>
       </c>
       <c r="K76" t="n">
-        <v>18.91891891891892</v>
+        <v>-25</v>
       </c>
       <c r="L76" t="n">
         <v>351.9</v>
@@ -4155,7 +4177,7 @@
         <v>206</v>
       </c>
       <c r="K77" t="n">
-        <v>-5</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L77" t="n">
         <v>350.9</v>
@@ -4206,7 +4228,7 @@
         <v>206</v>
       </c>
       <c r="K78" t="n">
-        <v>-5</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L78" t="n">
         <v>350</v>
@@ -4257,7 +4279,7 @@
         <v>210</v>
       </c>
       <c r="K79" t="n">
-        <v>-28.2051282051282</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L79" t="n">
         <v>348.9</v>
@@ -4308,7 +4330,7 @@
         <v>212</v>
       </c>
       <c r="K80" t="n">
-        <v>-30</v>
+        <v>-50</v>
       </c>
       <c r="L80" t="n">
         <v>347.6</v>
@@ -4359,7 +4381,7 @@
         <v>212</v>
       </c>
       <c r="K81" t="n">
-        <v>-33.33333333333333</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L81" t="n">
         <v>346.4</v>
@@ -4410,7 +4432,7 @@
         <v>212</v>
       </c>
       <c r="K82" t="n">
-        <v>-36.84210526315789</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L82" t="n">
         <v>345.4</v>
@@ -4461,7 +4483,7 @@
         <v>220</v>
       </c>
       <c r="K83" t="n">
-        <v>-54.54545454545454</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L83" t="n">
         <v>343.6</v>
@@ -4512,7 +4534,7 @@
         <v>229</v>
       </c>
       <c r="K84" t="n">
-        <v>-62.26415094339622</v>
+        <v>-100</v>
       </c>
       <c r="L84" t="n">
         <v>341.3</v>
@@ -4563,7 +4585,7 @@
         <v>238</v>
       </c>
       <c r="K85" t="n">
-        <v>-76.27118644067797</v>
+        <v>-100</v>
       </c>
       <c r="L85" t="n">
         <v>337.5</v>
@@ -4614,7 +4636,7 @@
         <v>243</v>
       </c>
       <c r="K86" t="n">
-        <v>-65.07936507936508</v>
+        <v>-72.97297297297297</v>
       </c>
       <c r="L86" t="n">
         <v>334.2</v>
@@ -4665,7 +4687,7 @@
         <v>243</v>
       </c>
       <c r="K87" t="n">
-        <v>-62.71186440677966</v>
+        <v>-72.97297297297297</v>
       </c>
       <c r="L87" t="n">
         <v>331.5</v>
@@ -4716,7 +4738,7 @@
         <v>244</v>
       </c>
       <c r="K88" t="n">
-        <v>-59.32203389830508</v>
+        <v>-64.70588235294117</v>
       </c>
       <c r="L88" t="n">
         <v>328.9</v>
@@ -4767,7 +4789,7 @@
         <v>263</v>
       </c>
       <c r="K89" t="n">
-        <v>-18.42105263157895</v>
+        <v>-1.96078431372549</v>
       </c>
       <c r="L89" t="n">
         <v>328.6</v>
@@ -4818,7 +4840,7 @@
         <v>263</v>
       </c>
       <c r="K90" t="n">
-        <v>-18.42105263157895</v>
+        <v>-1.96078431372549</v>
       </c>
       <c r="L90" t="n">
         <v>328.5</v>
@@ -4869,7 +4891,7 @@
         <v>270</v>
       </c>
       <c r="K91" t="n">
-        <v>-24.39024390243902</v>
+        <v>-13.79310344827586</v>
       </c>
       <c r="L91" t="n">
         <v>327.7</v>
@@ -4920,7 +4942,7 @@
         <v>270</v>
       </c>
       <c r="K92" t="n">
-        <v>-22.5</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>326.9</v>
@@ -4971,7 +4993,7 @@
         <v>276</v>
       </c>
       <c r="K93" t="n">
-        <v>-13.95348837209302</v>
+        <v>31.91489361702128</v>
       </c>
       <c r="L93" t="n">
         <v>327.5</v>
@@ -5022,7 +5044,7 @@
         <v>276</v>
       </c>
       <c r="K94" t="n">
-        <v>-9.75609756097561</v>
+        <v>63.1578947368421</v>
       </c>
       <c r="L94" t="n">
         <v>329</v>
@@ -5073,7 +5095,7 @@
         <v>284</v>
       </c>
       <c r="K95" t="n">
-        <v>-26.19047619047619</v>
+        <v>26.82926829268293</v>
       </c>
       <c r="L95" t="n">
         <v>330.6</v>
@@ -5124,7 +5146,7 @@
         <v>290</v>
       </c>
       <c r="K96" t="n">
-        <v>-31.11111111111111</v>
+        <v>10.63829787234043</v>
       </c>
       <c r="L96" t="n">
         <v>331.1</v>
@@ -5175,7 +5197,7 @@
         <v>293</v>
       </c>
       <c r="K97" t="n">
-        <v>-21.83908045977012</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L97" t="n">
         <v>331.9</v>
@@ -5226,7 +5248,7 @@
         <v>300</v>
       </c>
       <c r="K98" t="n">
-        <v>-27.65957446808511</v>
+        <v>-51.35135135135135</v>
       </c>
       <c r="L98" t="n">
         <v>331.9</v>
@@ -5277,7 +5299,7 @@
         <v>301</v>
       </c>
       <c r="K99" t="n">
-        <v>-25.27472527472527</v>
+        <v>-52.63157894736842</v>
       </c>
       <c r="L99" t="n">
         <v>329.9</v>
@@ -5328,7 +5350,7 @@
         <v>303</v>
       </c>
       <c r="K100" t="n">
-        <v>-25.27472527472527</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L100" t="n">
         <v>327.7</v>
@@ -5379,7 +5401,7 @@
         <v>315</v>
       </c>
       <c r="K101" t="n">
-        <v>-10.67961165048544</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L101" t="n">
         <v>327.4</v>
@@ -5430,7 +5452,7 @@
         <v>315</v>
       </c>
       <c r="K102" t="n">
-        <v>-10.67961165048544</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L102" t="n">
         <v>327.1</v>
@@ -5481,7 +5503,7 @@
         <v>315</v>
       </c>
       <c r="K103" t="n">
-        <v>-3.157894736842105</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L103" t="n">
         <v>326.2</v>
@@ -5532,7 +5554,7 @@
         <v>322</v>
       </c>
       <c r="K104" t="n">
-        <v>-1.075268817204301</v>
+        <v>-21.05263157894737</v>
       </c>
       <c r="L104" t="n">
         <v>324.6</v>
@@ -5583,7 +5605,7 @@
         <v>328</v>
       </c>
       <c r="K105" t="n">
-        <v>15.55555555555556</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="L105" t="n">
         <v>324.4</v>
@@ -5634,7 +5656,7 @@
         <v>329</v>
       </c>
       <c r="K106" t="n">
-        <v>9.302325581395349</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
         <v>324.7</v>
@@ -5685,7 +5707,7 @@
         <v>334</v>
       </c>
       <c r="K107" t="n">
-        <v>3.296703296703297</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L107" t="n">
         <v>324.2</v>
@@ -5736,7 +5758,7 @@
         <v>348</v>
       </c>
       <c r="K108" t="n">
-        <v>15.38461538461539</v>
+        <v>36.17021276595745</v>
       </c>
       <c r="L108" t="n">
         <v>325.8</v>
@@ -5787,7 +5809,7 @@
         <v>349</v>
       </c>
       <c r="K109" t="n">
-        <v>-4.651162790697675</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L109" t="n">
         <v>327.4</v>
@@ -5838,7 +5860,7 @@
         <v>352</v>
       </c>
       <c r="K110" t="n">
-        <v>-7.865168539325842</v>
+        <v>8.108108108108109</v>
       </c>
       <c r="L110" t="n">
         <v>328.9</v>
@@ -5889,7 +5911,7 @@
         <v>352</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>8.108108108108109</v>
       </c>
       <c r="L111" t="n">
         <v>329.2</v>
@@ -5940,7 +5962,7 @@
         <v>355</v>
       </c>
       <c r="K112" t="n">
-        <v>3.529411764705882</v>
+        <v>15</v>
       </c>
       <c r="L112" t="n">
         <v>329.8</v>
@@ -5991,7 +6013,7 @@
         <v>365</v>
       </c>
       <c r="K113" t="n">
-        <v>7.865168539325842</v>
+        <v>53.48837209302325</v>
       </c>
       <c r="L113" t="n">
         <v>331.4</v>
@@ -6042,7 +6064,7 @@
         <v>367</v>
       </c>
       <c r="K114" t="n">
-        <v>9.890109890109891</v>
+        <v>48.71794871794872</v>
       </c>
       <c r="L114" t="n">
         <v>333.9</v>
@@ -6093,7 +6115,7 @@
         <v>375</v>
       </c>
       <c r="K115" t="n">
-        <v>9.890109890109891</v>
+        <v>26.08695652173913</v>
       </c>
       <c r="L115" t="n">
         <v>335</v>
@@ -6144,7 +6166,7 @@
         <v>383</v>
       </c>
       <c r="K116" t="n">
-        <v>24.73118279569892</v>
+        <v>51.02040816326531</v>
       </c>
       <c r="L116" t="n">
         <v>337</v>
@@ -6195,7 +6217,7 @@
         <v>387</v>
       </c>
       <c r="K117" t="n">
-        <v>25.53191489361702</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L117" t="n">
         <v>339.9</v>
@@ -6246,7 +6268,7 @@
         <v>395</v>
       </c>
       <c r="K118" t="n">
-        <v>24.21052631578947</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="L118" t="n">
         <v>340.6</v>
@@ -6297,7 +6319,7 @@
         <v>403</v>
       </c>
       <c r="K119" t="n">
-        <v>31.37254901960784</v>
+        <v>37.25490196078432</v>
       </c>
       <c r="L119" t="n">
         <v>342.2</v>
@@ -6348,7 +6370,7 @@
         <v>405</v>
       </c>
       <c r="K120" t="n">
-        <v>31.37254901960784</v>
+        <v>32.0754716981132</v>
       </c>
       <c r="L120" t="n">
         <v>343.9</v>
@@ -6399,7 +6421,7 @@
         <v>411</v>
       </c>
       <c r="K121" t="n">
-        <v>14.58333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L121" t="n">
         <v>345</v>
@@ -6450,7 +6472,7 @@
         <v>412</v>
       </c>
       <c r="K122" t="n">
-        <v>15.4639175257732</v>
+        <v>-2.127659574468085</v>
       </c>
       <c r="L122" t="n">
         <v>345.9</v>
@@ -6501,7 +6523,7 @@
         <v>412</v>
       </c>
       <c r="K123" t="n">
-        <v>15.4639175257732</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L123" t="n">
         <v>345.8</v>
@@ -6552,7 +6574,7 @@
         <v>412</v>
       </c>
       <c r="K124" t="n">
-        <v>24.44444444444444</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="L124" t="n">
         <v>345.5</v>
@@ -6603,7 +6625,7 @@
         <v>417</v>
       </c>
       <c r="K125" t="n">
-        <v>12.35955056179775</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="L125" t="n">
         <v>345.5</v>
@@ -6654,7 +6676,7 @@
         <v>422</v>
       </c>
       <c r="K126" t="n">
-        <v>18.27956989247312</v>
+        <v>-20</v>
       </c>
       <c r="L126" t="n">
         <v>345.2</v>
@@ -6705,7 +6727,7 @@
         <v>428</v>
       </c>
       <c r="K127" t="n">
-        <v>29.78723404255319</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="L127" t="n">
         <v>345.1</v>
@@ -6756,7 +6778,7 @@
         <v>429</v>
       </c>
       <c r="K128" t="n">
-        <v>16.04938271604938</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L128" t="n">
         <v>345.7</v>
@@ -6807,7 +6829,7 @@
         <v>429</v>
       </c>
       <c r="K129" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
         <v>345.5</v>
@@ -6858,7 +6880,7 @@
         <v>429</v>
       </c>
       <c r="K130" t="n">
-        <v>22.07792207792208</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L130" t="n">
         <v>345.5</v>
@@ -6909,7 +6931,7 @@
         <v>430</v>
       </c>
       <c r="K131" t="n">
-        <v>23.07692307692308</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L131" t="n">
         <v>346.2</v>
@@ -6960,7 +6982,7 @@
         <v>439</v>
       </c>
       <c r="K132" t="n">
-        <v>7.142857142857142</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L132" t="n">
         <v>345.9</v>
@@ -7011,7 +7033,7 @@
         <v>440</v>
       </c>
       <c r="K133" t="n">
-        <v>-4</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L133" t="n">
         <v>345.7</v>
@@ -7062,7 +7084,7 @@
         <v>446</v>
       </c>
       <c r="K134" t="n">
-        <v>1.265822784810127</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L134" t="n">
         <v>346.1</v>
@@ -7113,7 +7135,7 @@
         <v>460</v>
       </c>
       <c r="K135" t="n">
-        <v>-5.88235294117647</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L135" t="n">
         <v>345.6</v>
@@ -7164,7 +7186,7 @@
         <v>464</v>
       </c>
       <c r="K136" t="n">
-        <v>-20.98765432098765</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L136" t="n">
         <v>344.2</v>
@@ -7215,7 +7237,7 @@
         <v>471</v>
       </c>
       <c r="K137" t="n">
-        <v>-33.33333333333333</v>
+        <v>-61.90476190476191</v>
       </c>
       <c r="L137" t="n">
         <v>341.5</v>
@@ -7266,7 +7288,7 @@
         <v>471</v>
       </c>
       <c r="K138" t="n">
-        <v>-26.31578947368421</v>
+        <v>-61.90476190476191</v>
       </c>
       <c r="L138" t="n">
         <v>338.9</v>
@@ -7317,7 +7339,7 @@
         <v>478</v>
       </c>
       <c r="K139" t="n">
-        <v>-28</v>
+        <v>-38.77551020408163</v>
       </c>
       <c r="L139" t="n">
         <v>337</v>
@@ -7368,7 +7390,7 @@
         <v>478</v>
       </c>
       <c r="K140" t="n">
-        <v>-26.02739726027397</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L140" t="n">
         <v>335.1</v>
@@ -7419,7 +7441,7 @@
         <v>478</v>
       </c>
       <c r="K141" t="n">
-        <v>-19.40298507462687</v>
+        <v>-28.2051282051282</v>
       </c>
       <c r="L141" t="n">
         <v>333.1</v>
@@ -7470,7 +7492,7 @@
         <v>492</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="L142" t="n">
         <v>333.4</v>
@@ -7521,7 +7543,7 @@
         <v>493</v>
       </c>
       <c r="K143" t="n">
-        <v>-1.234567901234568</v>
+        <v>-10.63829787234043</v>
       </c>
       <c r="L143" t="n">
         <v>333.5</v>
@@ -7572,7 +7594,7 @@
         <v>495</v>
       </c>
       <c r="K144" t="n">
-        <v>1.204819277108434</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="L144" t="n">
         <v>333.2</v>
@@ -7623,7 +7645,7 @@
         <v>503</v>
       </c>
       <c r="K145" t="n">
-        <v>-2.325581395348837</v>
+        <v>17.94871794871795</v>
       </c>
       <c r="L145" t="n">
         <v>333.5</v>
@@ -7674,7 +7696,7 @@
         <v>504</v>
       </c>
       <c r="K146" t="n">
-        <v>-7.317073170731707</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L146" t="n">
         <v>334.3</v>
@@ -7725,7 +7747,7 @@
         <v>511</v>
       </c>
       <c r="K147" t="n">
-        <v>-6.024096385542169</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="L147" t="n">
         <v>336.5</v>
@@ -7776,7 +7798,7 @@
         <v>511</v>
       </c>
       <c r="K148" t="n">
-        <v>-4.878048780487805</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L148" t="n">
         <v>338.7</v>
@@ -7827,7 +7849,7 @@
         <v>519</v>
       </c>
       <c r="K149" t="n">
-        <v>-13.33333333333333</v>
+        <v>17.07317073170732</v>
       </c>
       <c r="L149" t="n">
         <v>339.4</v>
@@ -7878,7 +7900,7 @@
         <v>529</v>
       </c>
       <c r="K150" t="n">
-        <v>-2</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L150" t="n">
         <v>341.1</v>
@@ -7929,7 +7951,7 @@
         <v>535</v>
       </c>
       <c r="K151" t="n">
-        <v>-8.571428571428571</v>
+        <v>-6.976744186046512</v>
       </c>
       <c r="L151" t="n">
         <v>342.2</v>
@@ -7980,7 +8002,7 @@
         <v>537</v>
       </c>
       <c r="K152" t="n">
-        <v>-2.040816326530612</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L152" t="n">
         <v>341.7</v>
@@ -8031,7 +8053,7 @@
         <v>544</v>
       </c>
       <c r="K153" t="n">
-        <v>3.846153846153846</v>
+        <v>2.040816326530612</v>
       </c>
       <c r="L153" t="n">
         <v>342</v>
@@ -8082,7 +8104,7 @@
         <v>554</v>
       </c>
       <c r="K154" t="n">
-        <v>-11.11111111111111</v>
+        <v>-1.96078431372549</v>
       </c>
       <c r="L154" t="n">
         <v>341.1</v>
@@ -8133,7 +8155,7 @@
         <v>564</v>
       </c>
       <c r="K155" t="n">
-        <v>11.53846153846154</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L155" t="n">
         <v>342</v>
@@ -8184,7 +8206,7 @@
         <v>566</v>
       </c>
       <c r="K156" t="n">
-        <v>13.72549019607843</v>
+        <v>-1.818181818181818</v>
       </c>
       <c r="L156" t="n">
         <v>342.6</v>
@@ -8235,7 +8257,7 @@
         <v>567</v>
       </c>
       <c r="K157" t="n">
-        <v>22.91666666666666</v>
+        <v>0</v>
       </c>
       <c r="L157" t="n">
         <v>342.6</v>
@@ -8286,7 +8308,7 @@
         <v>569</v>
       </c>
       <c r="K158" t="n">
-        <v>20.40816326530612</v>
+        <v>12</v>
       </c>
       <c r="L158" t="n">
         <v>342.4</v>
@@ -8337,7 +8359,7 @@
         <v>579</v>
       </c>
       <c r="K159" t="n">
-        <v>2.97029702970297</v>
+        <v>-28</v>
       </c>
       <c r="L159" t="n">
         <v>342</v>
@@ -8388,7 +8410,7 @@
         <v>582</v>
       </c>
       <c r="K160" t="n">
-        <v>0</v>
+        <v>-23.40425531914894</v>
       </c>
       <c r="L160" t="n">
         <v>340.3</v>
@@ -8439,7 +8461,7 @@
         <v>590</v>
       </c>
       <c r="K161" t="n">
-        <v>7.142857142857142</v>
+        <v>-1.886792452830189</v>
       </c>
       <c r="L161" t="n">
         <v>340</v>
@@ -8490,7 +8512,7 @@
         <v>591</v>
       </c>
       <c r="K162" t="n">
-        <v>-7.07070707070707</v>
+        <v>-19.14893617021277</v>
       </c>
       <c r="L162" t="n">
         <v>339.8</v>
@@ -8541,7 +8563,7 @@
         <v>599</v>
       </c>
       <c r="K163" t="n">
-        <v>-13.20754716981132</v>
+        <v>-15.55555555555556</v>
       </c>
       <c r="L163" t="n">
         <v>338.1</v>
@@ -8592,7 +8614,7 @@
         <v>600</v>
       </c>
       <c r="K164" t="n">
-        <v>-16.19047619047619</v>
+        <v>-50</v>
       </c>
       <c r="L164" t="n">
         <v>337.3</v>
@@ -8643,7 +8665,7 @@
         <v>604</v>
       </c>
       <c r="K165" t="n">
-        <v>-4.95049504950495</v>
+        <v>-31.57894736842105</v>
       </c>
       <c r="L165" t="n">
         <v>335.9</v>
@@ -8694,7 +8716,7 @@
         <v>613</v>
       </c>
       <c r="K166" t="n">
-        <v>-13.76146788990826</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L166" t="n">
         <v>333.8</v>
@@ -8745,7 +8767,7 @@
         <v>613</v>
       </c>
       <c r="K167" t="n">
-        <v>-21.56862745098039</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L167" t="n">
         <v>331.6</v>
@@ -8796,7 +8818,7 @@
         <v>614</v>
       </c>
       <c r="K168" t="n">
-        <v>-22.33009708737864</v>
+        <v>-31.42857142857143</v>
       </c>
       <c r="L168" t="n">
         <v>329.5</v>
@@ -8847,7 +8869,7 @@
         <v>618</v>
       </c>
       <c r="K169" t="n">
-        <v>-19.19191919191919</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L169" t="n">
         <v>328</v>
@@ -8898,7 +8920,7 @@
         <v>644</v>
       </c>
       <c r="K170" t="n">
-        <v>-2.608695652173913</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L170" t="n">
         <v>329.4</v>
@@ -8949,7 +8971,7 @@
         <v>657</v>
       </c>
       <c r="K171" t="n">
-        <v>-8.196721311475409</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L171" t="n">
         <v>328.7</v>
@@ -9000,7 +9022,7 @@
         <v>660</v>
       </c>
       <c r="K172" t="n">
-        <v>-8.943089430894309</v>
+        <v>-1.639344262295082</v>
       </c>
       <c r="L172" t="n">
         <v>327.8</v>
@@ -9051,7 +9073,7 @@
         <v>661</v>
       </c>
       <c r="K173" t="n">
-        <v>-16.23931623931624</v>
+        <v>-1.639344262295082</v>
       </c>
       <c r="L173" t="n">
         <v>327.6</v>
@@ -9102,7 +9124,7 @@
         <v>674</v>
       </c>
       <c r="K174" t="n">
-        <v>3.333333333333333</v>
+        <v>11.42857142857143</v>
       </c>
       <c r="L174" t="n">
         <v>328.8</v>
@@ -9153,7 +9175,7 @@
         <v>676</v>
       </c>
       <c r="K175" t="n">
-        <v>-7.142857142857142</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L175" t="n">
         <v>329.4</v>
@@ -9204,7 +9226,7 @@
         <v>677</v>
       </c>
       <c r="K176" t="n">
-        <v>-4.504504504504505</v>
+        <v>25</v>
       </c>
       <c r="L176" t="n">
         <v>331</v>
@@ -9255,7 +9277,7 @@
         <v>680</v>
       </c>
       <c r="K177" t="n">
-        <v>-7.964601769911504</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="L177" t="n">
         <v>332.3</v>
@@ -9306,7 +9328,7 @@
         <v>681</v>
       </c>
       <c r="K178" t="n">
-        <v>-5.357142857142857</v>
+        <v>30.15873015873016</v>
       </c>
       <c r="L178" t="n">
         <v>333.8</v>
@@ -9357,7 +9379,7 @@
         <v>682</v>
       </c>
       <c r="K179" t="n">
-        <v>4.854368932038835</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L179" t="n">
         <v>335.8</v>
@@ -9408,7 +9430,7 @@
         <v>684</v>
       </c>
       <c r="K180" t="n">
-        <v>9.803921568627452</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L180" t="n">
         <v>335.4</v>
@@ -9459,7 +9481,7 @@
         <v>689</v>
       </c>
       <c r="K181" t="n">
-        <v>-3.03030303030303</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L181" t="n">
         <v>335.8</v>
@@ -9510,7 +9532,7 @@
         <v>689</v>
       </c>
       <c r="K182" t="n">
-        <v>-2.040816326530612</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L182" t="n">
         <v>336.5</v>
@@ -9561,7 +9583,7 @@
         <v>690</v>
       </c>
       <c r="K183" t="n">
-        <v>5.494505494505495</v>
+        <v>-37.5</v>
       </c>
       <c r="L183" t="n">
         <v>337.2</v>
@@ -9612,7 +9634,7 @@
         <v>691</v>
       </c>
       <c r="K184" t="n">
-        <v>7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L184" t="n">
         <v>336.7</v>
@@ -9663,7 +9685,7 @@
         <v>691</v>
       </c>
       <c r="K185" t="n">
-        <v>3.448275862068965</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L185" t="n">
         <v>336.4</v>
@@ -9714,7 +9736,7 @@
         <v>691</v>
       </c>
       <c r="K186" t="n">
-        <v>15.38461538461539</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L186" t="n">
         <v>336</v>
@@ -9765,7 +9787,7 @@
         <v>691</v>
       </c>
       <c r="K187" t="n">
-        <v>15.38461538461539</v>
+        <v>-20</v>
       </c>
       <c r="L187" t="n">
         <v>335.9</v>
@@ -9816,7 +9838,7 @@
         <v>693</v>
       </c>
       <c r="K188" t="n">
-        <v>13.92405063291139</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L188" t="n">
         <v>335.5</v>
@@ -9867,7 +9889,7 @@
         <v>694</v>
       </c>
       <c r="K189" t="n">
-        <v>21.05263157894737</v>
+        <v>-60</v>
       </c>
       <c r="L189" t="n">
         <v>335.1</v>
@@ -9969,7 +9991,7 @@
         <v>700</v>
       </c>
       <c r="K191" t="n">
-        <v>-6.976744186046512</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L191" t="n">
         <v>333.8</v>
@@ -10020,7 +10042,7 @@
         <v>705</v>
       </c>
       <c r="K192" t="n">
-        <v>11.11111111111111</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L192" t="n">
         <v>333.6</v>
@@ -10071,7 +10093,7 @@
         <v>716</v>
       </c>
       <c r="K193" t="n">
-        <v>-9.090909090909092</v>
+        <v>-52</v>
       </c>
       <c r="L193" t="n">
         <v>332.4</v>
@@ -10122,7 +10144,7 @@
         <v>721</v>
       </c>
       <c r="K194" t="n">
-        <v>-27.65957446808511</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L194" t="n">
         <v>331.6</v>
@@ -10173,7 +10195,7 @@
         <v>728</v>
       </c>
       <c r="K195" t="n">
-        <v>-7.692307692307693</v>
+        <v>-2.702702702702703</v>
       </c>
       <c r="L195" t="n">
         <v>331.5</v>
@@ -10224,7 +10246,7 @@
         <v>729</v>
       </c>
       <c r="K196" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L196" t="n">
         <v>331.5</v>
@@ -10275,7 +10297,7 @@
         <v>729</v>
       </c>
       <c r="K197" t="n">
-        <v>-2.040816326530612</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L197" t="n">
         <v>331.5</v>
@@ -10326,7 +10348,7 @@
         <v>729</v>
       </c>
       <c r="K198" t="n">
-        <v>-4.166666666666666</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="L198" t="n">
         <v>331.7</v>
@@ -10377,7 +10399,7 @@
         <v>732</v>
       </c>
       <c r="K199" t="n">
-        <v>-12</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L199" t="n">
         <v>331.5</v>
@@ -10428,7 +10450,7 @@
         <v>735</v>
       </c>
       <c r="K200" t="n">
-        <v>-21.56862745098039</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="L200" t="n">
         <v>331</v>
@@ -10479,7 +10501,7 @@
         <v>736</v>
       </c>
       <c r="K201" t="n">
-        <v>-10.63829787234043</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L201" t="n">
         <v>331.2</v>
@@ -10530,7 +10552,7 @@
         <v>738</v>
       </c>
       <c r="K202" t="n">
-        <v>-14.28571428571428</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L202" t="n">
         <v>330.7</v>
@@ -10581,7 +10603,7 @@
         <v>744</v>
       </c>
       <c r="K203" t="n">
-        <v>0</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L203" t="n">
         <v>331.9</v>
@@ -10632,7 +10654,7 @@
         <v>744</v>
       </c>
       <c r="K204" t="n">
-        <v>-1.886792452830189</v>
+        <v>0</v>
       </c>
       <c r="L204" t="n">
         <v>332.6</v>
@@ -10734,7 +10756,7 @@
         <v>746</v>
       </c>
       <c r="K206" t="n">
-        <v>-1.818181818181818</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L206" t="n">
         <v>332.6</v>
@@ -10785,7 +10807,7 @@
         <v>754</v>
       </c>
       <c r="K207" t="n">
-        <v>-14.28571428571428</v>
+        <v>-36</v>
       </c>
       <c r="L207" t="n">
         <v>331.7</v>
@@ -10836,7 +10858,7 @@
         <v>761</v>
       </c>
       <c r="K208" t="n">
-        <v>0</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L208" t="n">
         <v>331.5</v>
@@ -10887,7 +10909,7 @@
         <v>768</v>
       </c>
       <c r="K209" t="n">
-        <v>-10.81081081081081</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L209" t="n">
         <v>330.9</v>
@@ -10938,7 +10960,7 @@
         <v>772</v>
       </c>
       <c r="K210" t="n">
-        <v>-15.38461538461539</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L210" t="n">
         <v>330.2</v>
@@ -10989,7 +11011,7 @@
         <v>773</v>
       </c>
       <c r="K211" t="n">
-        <v>-6.849315068493151</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L211" t="n">
         <v>329.5</v>
@@ -11040,7 +11062,7 @@
         <v>773</v>
       </c>
       <c r="K212" t="n">
-        <v>-14.70588235294118</v>
+        <v>-37.93103448275862</v>
       </c>
       <c r="L212" t="n">
         <v>329</v>
@@ -11091,7 +11113,7 @@
         <v>773</v>
       </c>
       <c r="K213" t="n">
-        <v>1.754385964912281</v>
+        <v>-37.93103448275862</v>
       </c>
       <c r="L213" t="n">
         <v>327.9</v>
@@ -11142,7 +11164,7 @@
         <v>779</v>
       </c>
       <c r="K214" t="n">
-        <v>-17.24137931034483</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L214" t="n">
         <v>326.2</v>
@@ -11193,7 +11215,7 @@
         <v>779</v>
       </c>
       <c r="K215" t="n">
-        <v>-33.33333333333333</v>
+        <v>-51.51515151515152</v>
       </c>
       <c r="L215" t="n">
         <v>324.4</v>
@@ -11244,7 +11266,7 @@
         <v>781</v>
       </c>
       <c r="K216" t="n">
-        <v>-38.46153846153847</v>
+        <v>-40.74074074074074</v>
       </c>
       <c r="L216" t="n">
         <v>322.5</v>
@@ -11295,7 +11317,7 @@
         <v>782</v>
       </c>
       <c r="K217" t="n">
-        <v>-35.84905660377358</v>
+        <v>-80.95238095238095</v>
       </c>
       <c r="L217" t="n">
         <v>321.5</v>
@@ -11346,7 +11368,7 @@
         <v>788</v>
       </c>
       <c r="K218" t="n">
-        <v>-22.03389830508474</v>
+        <v>-20</v>
       </c>
       <c r="L218" t="n">
         <v>320.4</v>
@@ -11397,7 +11419,7 @@
         <v>790</v>
       </c>
       <c r="K219" t="n">
-        <v>-13.79310344827586</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L219" t="n">
         <v>320.2</v>
@@ -11448,7 +11470,7 @@
         <v>790</v>
       </c>
       <c r="K220" t="n">
-        <v>-9.090909090909092</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L220" t="n">
         <v>320.4</v>
@@ -11499,7 +11521,7 @@
         <v>790</v>
       </c>
       <c r="K221" t="n">
-        <v>-11.11111111111111</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L221" t="n">
         <v>320.5</v>
@@ -11550,7 +11572,7 @@
         <v>792</v>
       </c>
       <c r="K222" t="n">
-        <v>-3.703703703703703</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L222" t="n">
         <v>320.8</v>
@@ -11601,7 +11623,7 @@
         <v>793</v>
       </c>
       <c r="K223" t="n">
-        <v>-14.28571428571428</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L223" t="n">
         <v>321.2</v>
@@ -11652,7 +11674,7 @@
         <v>794</v>
       </c>
       <c r="K224" t="n">
-        <v>-16</v>
+        <v>60</v>
       </c>
       <c r="L224" t="n">
         <v>322.1</v>
@@ -11703,7 +11725,7 @@
         <v>797</v>
       </c>
       <c r="K225" t="n">
-        <v>-23.07692307692308</v>
+        <v>50</v>
       </c>
       <c r="L225" t="n">
         <v>322.7</v>
@@ -11754,7 +11776,7 @@
         <v>801</v>
       </c>
       <c r="K226" t="n">
-        <v>-12.72727272727273</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L226" t="n">
         <v>323.9</v>
@@ -11805,7 +11827,7 @@
         <v>801</v>
       </c>
       <c r="K227" t="n">
-        <v>2.127659574468085</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L227" t="n">
         <v>325</v>
@@ -11856,7 +11878,7 @@
         <v>802</v>
       </c>
       <c r="K228" t="n">
-        <v>-17.07317073170732</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L228" t="n">
         <v>325.4</v>
@@ -11907,7 +11929,7 @@
         <v>809</v>
       </c>
       <c r="K229" t="n">
-        <v>17.07317073170732</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L229" t="n">
         <v>326.3</v>
@@ -11958,7 +11980,7 @@
         <v>811</v>
       </c>
       <c r="K230" t="n">
-        <v>23.07692307692308</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L230" t="n">
         <v>327</v>
@@ -12009,7 +12031,7 @@
         <v>811</v>
       </c>
       <c r="K231" t="n">
-        <v>21.05263157894737</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L231" t="n">
         <v>327.7</v>
@@ -12060,7 +12082,7 @@
         <v>819</v>
       </c>
       <c r="K232" t="n">
-        <v>0</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L232" t="n">
         <v>327.4</v>
@@ -12111,7 +12133,7 @@
         <v>825</v>
       </c>
       <c r="K233" t="n">
-        <v>11.53846153846154</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L233" t="n">
         <v>327.6</v>
@@ -12162,7 +12184,7 @@
         <v>825</v>
       </c>
       <c r="K234" t="n">
-        <v>26.08695652173913</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L234" t="n">
         <v>327.9</v>
@@ -12213,7 +12235,7 @@
         <v>827</v>
       </c>
       <c r="K235" t="n">
-        <v>29.16666666666667</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L235" t="n">
         <v>328.7</v>
@@ -12264,7 +12286,7 @@
         <v>827</v>
       </c>
       <c r="K236" t="n">
-        <v>34.78260869565217</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L236" t="n">
         <v>329.1</v>
@@ -12315,7 +12337,7 @@
         <v>831</v>
       </c>
       <c r="K237" t="n">
-        <v>38.77551020408163</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L237" t="n">
         <v>329.9</v>
@@ -12370,7 +12392,7 @@
         <v>832</v>
       </c>
       <c r="K238" t="n">
-        <v>27.27272727272727</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L238" t="n">
         <v>330.7</v>
@@ -12425,7 +12447,7 @@
         <v>834</v>
       </c>
       <c r="K239" t="n">
-        <v>18.18181818181818</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L239" t="n">
         <v>330.6</v>
@@ -12482,7 +12504,7 @@
         <v>835</v>
       </c>
       <c r="K240" t="n">
-        <v>15.55555555555556</v>
+        <v>0</v>
       </c>
       <c r="L240" t="n">
         <v>330.6</v>
@@ -12539,7 +12561,7 @@
         <v>838</v>
       </c>
       <c r="K241" t="n">
-        <v>20.83333333333334</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L241" t="n">
         <v>330.9</v>
@@ -12596,7 +12618,7 @@
         <v>839</v>
       </c>
       <c r="K242" t="n">
-        <v>14.8936170212766</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L242" t="n">
         <v>331.9</v>
@@ -12653,7 +12675,7 @@
         <v>839</v>
       </c>
       <c r="K243" t="n">
-        <v>13.04347826086956</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L243" t="n">
         <v>332.3</v>
@@ -12710,7 +12732,7 @@
         <v>840</v>
       </c>
       <c r="K244" t="n">
-        <v>13.04347826086956</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L244" t="n">
         <v>332.6</v>
@@ -12767,7 +12789,7 @@
         <v>840</v>
       </c>
       <c r="K245" t="n">
-        <v>20.93023255813954</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L245" t="n">
         <v>332.7</v>
@@ -12824,7 +12846,7 @@
         <v>840</v>
       </c>
       <c r="K246" t="n">
-        <v>12.82051282051282</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L246" t="n">
         <v>332.8</v>
@@ -12881,7 +12903,7 @@
         <v>841</v>
       </c>
       <c r="K247" t="n">
-        <v>10</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L247" t="n">
         <v>332.4</v>
@@ -12938,7 +12960,7 @@
         <v>841</v>
       </c>
       <c r="K248" t="n">
-        <v>12.82051282051282</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L248" t="n">
         <v>332.1</v>
@@ -12995,7 +13017,7 @@
         <v>841</v>
       </c>
       <c r="K249" t="n">
-        <v>-6.25</v>
+        <v>0</v>
       </c>
       <c r="L249" t="n">
         <v>332</v>
@@ -13052,7 +13074,7 @@
         <v>841</v>
       </c>
       <c r="K250" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L250" t="n">
         <v>332</v>
@@ -13109,7 +13131,7 @@
         <v>850</v>
       </c>
       <c r="K251" t="n">
-        <v>-23.07692307692308</v>
+        <v>-100</v>
       </c>
       <c r="L251" t="n">
         <v>330.8</v>
@@ -13166,7 +13188,7 @@
         <v>856</v>
       </c>
       <c r="K252" t="n">
-        <v>13.51351351351351</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L252" t="n">
         <v>330.3</v>
@@ -13223,7 +13245,7 @@
         <v>860</v>
       </c>
       <c r="K253" t="n">
-        <v>-14.28571428571428</v>
+        <v>-40</v>
       </c>
       <c r="L253" t="n">
         <v>329.4</v>
@@ -13280,7 +13302,7 @@
         <v>862</v>
       </c>
       <c r="K254" t="n">
-        <v>-18.91891891891892</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L254" t="n">
         <v>328.4</v>
@@ -13337,7 +13359,7 @@
         <v>862</v>
       </c>
       <c r="K255" t="n">
-        <v>-25.71428571428571</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L255" t="n">
         <v>327.4</v>
@@ -13394,7 +13416,7 @@
         <v>864</v>
       </c>
       <c r="K256" t="n">
-        <v>-29.72972972972973</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L256" t="n">
         <v>326.2</v>
@@ -13451,7 +13473,7 @@
         <v>866</v>
       </c>
       <c r="K257" t="n">
-        <v>-37.14285714285715</v>
+        <v>-36</v>
       </c>
       <c r="L257" t="n">
         <v>325.3</v>
@@ -13502,7 +13524,7 @@
         <v>873</v>
       </c>
       <c r="K258" t="n">
-        <v>-46.34146341463415</v>
+        <v>-50</v>
       </c>
       <c r="L258" t="n">
         <v>323.7</v>
@@ -13553,7 +13575,7 @@
         <v>880</v>
       </c>
       <c r="K259" t="n">
-        <v>-52.17391304347826</v>
+        <v>-58.97435897435898</v>
       </c>
       <c r="L259" t="n">
         <v>321.4</v>
@@ -13604,7 +13626,7 @@
         <v>885</v>
       </c>
       <c r="K260" t="n">
-        <v>-36</v>
+        <v>-25.71428571428571</v>
       </c>
       <c r="L260" t="n">
         <v>319.6</v>
@@ -13655,7 +13677,7 @@
         <v>887</v>
       </c>
       <c r="K261" t="n">
-        <v>-46.93877551020408</v>
+        <v>-54.83870967741935</v>
       </c>
       <c r="L261" t="n">
         <v>318.5</v>
@@ -13706,7 +13728,7 @@
         <v>888</v>
       </c>
       <c r="K262" t="n">
-        <v>-46.93877551020408</v>
+        <v>-50</v>
       </c>
       <c r="L262" t="n">
         <v>316.7</v>
@@ -13757,7 +13779,7 @@
         <v>888</v>
       </c>
       <c r="K263" t="n">
-        <v>-46.93877551020408</v>
+        <v>-46.15384615384615</v>
       </c>
       <c r="L263" t="n">
         <v>315.3</v>
@@ -13808,7 +13830,7 @@
         <v>891</v>
       </c>
       <c r="K264" t="n">
-        <v>-49.01960784313725</v>
+        <v>-51.72413793103448</v>
       </c>
       <c r="L264" t="n">
         <v>313.8</v>
@@ -13859,7 +13881,7 @@
         <v>897</v>
       </c>
       <c r="K265" t="n">
-        <v>-33.33333333333333</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L265" t="n">
         <v>312.9</v>
@@ -13910,7 +13932,7 @@
         <v>900</v>
       </c>
       <c r="K266" t="n">
-        <v>-26.66666666666667</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L266" t="n">
         <v>312.5</v>
@@ -13961,7 +13983,7 @@
         <v>909</v>
       </c>
       <c r="K267" t="n">
-        <v>-8.823529411764707</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="L267" t="n">
         <v>312.8</v>
@@ -14012,7 +14034,7 @@
         <v>912</v>
       </c>
       <c r="K268" t="n">
-        <v>-12.67605633802817</v>
+        <v>43.75</v>
       </c>
       <c r="L268" t="n">
         <v>313.5</v>
@@ -14063,7 +14085,7 @@
         <v>916</v>
       </c>
       <c r="K269" t="n">
-        <v>-17.33333333333334</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L269" t="n">
         <v>314.5</v>
@@ -14114,7 +14136,7 @@
         <v>918</v>
       </c>
       <c r="K270" t="n">
-        <v>-19.48051948051948</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L270" t="n">
         <v>314.8</v>
@@ -14165,7 +14187,7 @@
         <v>923</v>
       </c>
       <c r="K271" t="n">
-        <v>-1.36986301369863</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="L271" t="n">
         <v>315.8</v>
@@ -14216,7 +14238,7 @@
         <v>924</v>
       </c>
       <c r="K272" t="n">
-        <v>-11.76470588235294</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="L272" t="n">
         <v>316.8</v>
@@ -14267,7 +14289,7 @@
         <v>931</v>
       </c>
       <c r="K273" t="n">
-        <v>-15.49295774647887</v>
+        <v>15</v>
       </c>
       <c r="L273" t="n">
         <v>317.1</v>
@@ -14318,7 +14340,7 @@
         <v>936</v>
       </c>
       <c r="K274" t="n">
-        <v>-5.405405405405405</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="L274" t="n">
         <v>318.2</v>
@@ -14369,7 +14391,7 @@
         <v>943</v>
       </c>
       <c r="K275" t="n">
-        <v>-13.58024691358025</v>
+        <v>-11.62790697674419</v>
       </c>
       <c r="L275" t="n">
         <v>318</v>
@@ -14420,7 +14442,7 @@
         <v>946</v>
       </c>
       <c r="K276" t="n">
-        <v>-7.317073170731707</v>
+        <v>-29.72972972972973</v>
       </c>
       <c r="L276" t="n">
         <v>317.8</v>
@@ -14471,7 +14493,7 @@
         <v>950</v>
       </c>
       <c r="K277" t="n">
-        <v>-14.28571428571428</v>
+        <v>-31.57894736842105</v>
       </c>
       <c r="L277" t="n">
         <v>316.3</v>
@@ -14522,7 +14544,7 @@
         <v>954</v>
       </c>
       <c r="K278" t="n">
-        <v>-1.234567901234568</v>
+        <v>-10.52631578947368</v>
       </c>
       <c r="L278" t="n">
         <v>315.5</v>
@@ -14573,7 +14595,7 @@
         <v>955</v>
       </c>
       <c r="K279" t="n">
-        <v>9.333333333333334</v>
+        <v>-2.702702702702703</v>
       </c>
       <c r="L279" t="n">
         <v>315.2</v>
@@ -14624,7 +14646,7 @@
         <v>965</v>
       </c>
       <c r="K280" t="n">
-        <v>-10</v>
+        <v>-38.09523809523809</v>
       </c>
       <c r="L280" t="n">
         <v>314.1</v>
@@ -14675,7 +14697,7 @@
         <v>974</v>
       </c>
       <c r="K281" t="n">
-        <v>3.448275862068965</v>
+        <v>-12</v>
       </c>
       <c r="L281" t="n">
         <v>313.4</v>
@@ -14726,7 +14748,7 @@
         <v>978</v>
       </c>
       <c r="K282" t="n">
-        <v>0</v>
+        <v>-6.382978723404255</v>
       </c>
       <c r="L282" t="n">
         <v>312.4</v>
@@ -14777,7 +14799,7 @@
         <v>978</v>
       </c>
       <c r="K283" t="n">
-        <v>0</v>
+        <v>-19.04761904761905</v>
       </c>
       <c r="L283" t="n">
         <v>312.1</v>
@@ -14828,7 +14850,7 @@
         <v>980</v>
       </c>
       <c r="K284" t="n">
-        <v>5.617977528089887</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L284" t="n">
         <v>311.5</v>
@@ -14879,7 +14901,7 @@
         <v>983</v>
       </c>
       <c r="K285" t="n">
-        <v>-4.651162790697675</v>
+        <v>-13.51351351351351</v>
       </c>
       <c r="L285" t="n">
         <v>311.3</v>
@@ -14930,7 +14952,7 @@
         <v>984</v>
       </c>
       <c r="K286" t="n">
-        <v>-9.523809523809524</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L286" t="n">
         <v>310.7</v>
@@ -14981,7 +15003,7 @@
         <v>989</v>
       </c>
       <c r="K287" t="n">
-        <v>-15</v>
+        <v>-2.857142857142857</v>
       </c>
       <c r="L287" t="n">
         <v>311</v>
@@ -15032,7 +15054,7 @@
         <v>990</v>
       </c>
       <c r="K288" t="n">
-        <v>-12.82051282051282</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L288" t="n">
         <v>310.8</v>
@@ -15083,7 +15105,7 @@
         <v>991</v>
       </c>
       <c r="K289" t="n">
-        <v>-9.333333333333334</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L289" t="n">
         <v>310.4</v>
@@ -15134,7 +15156,7 @@
         <v>991</v>
       </c>
       <c r="K290" t="n">
-        <v>-6.849315068493151</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L290" t="n">
         <v>311</v>
@@ -15185,7 +15207,7 @@
         <v>996</v>
       </c>
       <c r="K291" t="n">
-        <v>-20.54794520547945</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L291" t="n">
         <v>310.2</v>
@@ -15236,7 +15258,7 @@
         <v>999</v>
       </c>
       <c r="K292" t="n">
-        <v>-22.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L292" t="n">
         <v>309.5</v>
@@ -15287,7 +15309,7 @@
         <v>1008</v>
       </c>
       <c r="K293" t="n">
-        <v>-1.298701298701299</v>
+        <v>0</v>
       </c>
       <c r="L293" t="n">
         <v>309.7</v>
@@ -15338,7 +15360,7 @@
         <v>1008</v>
       </c>
       <c r="K294" t="n">
-        <v>-8.333333333333332</v>
+        <v>12</v>
       </c>
       <c r="L294" t="n">
         <v>309.7</v>
@@ -15389,7 +15411,7 @@
         <v>1009</v>
       </c>
       <c r="K295" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L295" t="n">
         <v>309.9</v>
@@ -15440,7 +15462,7 @@
         <v>1010</v>
       </c>
       <c r="K296" t="n">
-        <v>-6.25</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L296" t="n">
         <v>310.1</v>
@@ -15491,7 +15513,7 @@
         <v>1017</v>
       </c>
       <c r="K297" t="n">
-        <v>-10.44776119402985</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L297" t="n">
         <v>309.1</v>
@@ -15542,7 +15564,7 @@
         <v>1024</v>
       </c>
       <c r="K298" t="n">
-        <v>-5.714285714285714</v>
+        <v>-3.03030303030303</v>
       </c>
       <c r="L298" t="n">
         <v>308.9</v>
@@ -15593,7 +15615,7 @@
         <v>1034</v>
       </c>
       <c r="K299" t="n">
-        <v>-18.9873417721519</v>
+        <v>-25.58139534883721</v>
       </c>
       <c r="L299" t="n">
         <v>307.8</v>
@@ -15644,7 +15666,7 @@
         <v>1035</v>
       </c>
       <c r="K300" t="n">
-        <v>-8.571428571428571</v>
+        <v>-17.94871794871795</v>
       </c>
       <c r="L300" t="n">
         <v>306.6</v>
@@ -15695,7 +15717,7 @@
         <v>1035</v>
       </c>
       <c r="K301" t="n">
-        <v>-24.59016393442623</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L301" t="n">
         <v>305.9</v>
@@ -15746,7 +15768,7 @@
         <v>1035</v>
       </c>
       <c r="K302" t="n">
-        <v>-19.29824561403509</v>
+        <v>-48.14814814814815</v>
       </c>
       <c r="L302" t="n">
         <v>305.5</v>
@@ -15797,7 +15819,7 @@
         <v>1038</v>
       </c>
       <c r="K303" t="n">
-        <v>-23.33333333333333</v>
+        <v>-53.33333333333334</v>
       </c>
       <c r="L303" t="n">
         <v>303.9</v>
@@ -15848,7 +15870,7 @@
         <v>1040</v>
       </c>
       <c r="K304" t="n">
-        <v>-30</v>
+        <v>-54.83870967741935</v>
       </c>
       <c r="L304" t="n">
         <v>302.1</v>
@@ -15899,7 +15921,7 @@
         <v>1042</v>
       </c>
       <c r="K305" t="n">
-        <v>-28.8135593220339</v>
+        <v>-56.25</v>
       </c>
       <c r="L305" t="n">
         <v>300.2</v>
@@ -15950,7 +15972,7 @@
         <v>1048</v>
       </c>
       <c r="K306" t="n">
-        <v>-34.375</v>
+        <v>-54.83870967741935</v>
       </c>
       <c r="L306" t="n">
         <v>297.8</v>
@@ -16001,7 +16023,7 @@
         <v>1068</v>
       </c>
       <c r="K307" t="n">
-        <v>-59.49367088607595</v>
+        <v>-100</v>
       </c>
       <c r="L307" t="n">
         <v>294.1</v>
@@ -16052,7 +16074,7 @@
         <v>1071</v>
       </c>
       <c r="K308" t="n">
-        <v>-53.08641975308642</v>
+        <v>-83.78378378378379</v>
       </c>
       <c r="L308" t="n">
         <v>290</v>
@@ -16103,7 +16125,7 @@
         <v>1073</v>
       </c>
       <c r="K309" t="n">
-        <v>-48.78048780487805</v>
+        <v>-73.68421052631578</v>
       </c>
       <c r="L309" t="n">
         <v>287.1</v>
@@ -16154,7 +16176,7 @@
         <v>1077</v>
       </c>
       <c r="K310" t="n">
-        <v>-41.86046511627907</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L310" t="n">
         <v>284.7</v>
@@ -16205,7 +16227,7 @@
         <v>1079</v>
       </c>
       <c r="K311" t="n">
-        <v>-39.75903614457831</v>
+        <v>-59.09090909090909</v>
       </c>
       <c r="L311" t="n">
         <v>282.1</v>
@@ -16256,7 +16278,7 @@
         <v>1079</v>
       </c>
       <c r="K312" t="n">
-        <v>-37.5</v>
+        <v>-56.09756097560976</v>
       </c>
       <c r="L312" t="n">
         <v>279.5</v>
@@ -16307,7 +16329,7 @@
         <v>1080</v>
       </c>
       <c r="K313" t="n">
-        <v>-52.77777777777778</v>
+        <v>-50</v>
       </c>
       <c r="L313" t="n">
         <v>277.3</v>
@@ -16358,7 +16380,7 @@
         <v>1089</v>
       </c>
       <c r="K314" t="n">
-        <v>-35.80246913580247</v>
+        <v>-19.14893617021277</v>
       </c>
       <c r="L314" t="n">
         <v>276.2</v>
@@ -16409,7 +16431,7 @@
         <v>1089</v>
       </c>
       <c r="K315" t="n">
-        <v>-35</v>
+        <v>-7.317073170731707</v>
       </c>
       <c r="L315" t="n">
         <v>275.3</v>
@@ -16460,7 +16482,7 @@
         <v>1097</v>
       </c>
       <c r="K316" t="n">
-        <v>-40.22988505747126</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L316" t="n">
         <v>274.2</v>
@@ -16511,7 +16533,7 @@
         <v>1101</v>
       </c>
       <c r="K317" t="n">
-        <v>-28.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L317" t="n">
         <v>275.5</v>
@@ -16562,7 +16584,7 @@
         <v>1106</v>
       </c>
       <c r="K318" t="n">
-        <v>-43.90243902439025</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L318" t="n">
         <v>276</v>
@@ -16613,7 +16635,7 @@
         <v>1112</v>
       </c>
       <c r="K319" t="n">
-        <v>-25.64102564102564</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L319" t="n">
         <v>276.9</v>
@@ -16664,7 +16686,7 @@
         <v>1116</v>
       </c>
       <c r="K320" t="n">
-        <v>-28.39506172839506</v>
+        <v>8.108108108108109</v>
       </c>
       <c r="L320" t="n">
         <v>277</v>
@@ -16715,7 +16737,7 @@
         <v>1118</v>
       </c>
       <c r="K321" t="n">
-        <v>-30.12048192771084</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="L321" t="n">
         <v>277.1</v>
@@ -16766,7 +16788,7 @@
         <v>1120</v>
       </c>
       <c r="K322" t="n">
-        <v>-27.05882352941176</v>
+        <v>5</v>
       </c>
       <c r="L322" t="n">
         <v>277.4</v>
@@ -16817,7 +16839,7 @@
         <v>1124</v>
       </c>
       <c r="K323" t="n">
-        <v>-27.90697674418605</v>
+        <v>-31.42857142857143</v>
       </c>
       <c r="L323" t="n">
         <v>277.2</v>
@@ -16868,7 +16890,7 @@
         <v>1126</v>
       </c>
       <c r="K324" t="n">
-        <v>-27.90697674418605</v>
+        <v>-35.13513513513514</v>
       </c>
       <c r="L324" t="n">
         <v>275.9</v>
@@ -16919,7 +16941,7 @@
         <v>1126</v>
       </c>
       <c r="K325" t="n">
-        <v>-26.19047619047619</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L325" t="n">
         <v>274.6</v>
@@ -16970,7 +16992,7 @@
         <v>1132</v>
       </c>
       <c r="K326" t="n">
-        <v>-11.9047619047619</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L326" t="n">
         <v>274.7</v>
@@ -17021,7 +17043,7 @@
         <v>1138</v>
       </c>
       <c r="K327" t="n">
-        <v>5.714285714285714</v>
+        <v>-12.5</v>
       </c>
       <c r="L327" t="n">
         <v>273.8</v>
@@ -17072,7 +17094,7 @@
         <v>1139</v>
       </c>
       <c r="K328" t="n">
-        <v>0</v>
+        <v>-40.74074074074074</v>
       </c>
       <c r="L328" t="n">
         <v>273.3</v>
@@ -17123,7 +17145,7 @@
         <v>1140</v>
       </c>
       <c r="K329" t="n">
-        <v>-1.492537313432836</v>
+        <v>-25</v>
       </c>
       <c r="L329" t="n">
         <v>272.3</v>
@@ -17174,7 +17196,7 @@
         <v>1141</v>
       </c>
       <c r="K330" t="n">
-        <v>-9.375</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L330" t="n">
         <v>271.6</v>
@@ -17225,7 +17247,7 @@
         <v>1142</v>
       </c>
       <c r="K331" t="n">
-        <v>-4.761904761904762</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L331" t="n">
         <v>271.2</v>
@@ -17276,7 +17298,7 @@
         <v>1143</v>
       </c>
       <c r="K332" t="n">
-        <v>-6.25</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L332" t="n">
         <v>270.5</v>
@@ -17327,7 +17349,7 @@
         <v>1145</v>
       </c>
       <c r="K333" t="n">
-        <v>-4.615384615384616</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L333" t="n">
         <v>270.4</v>
@@ -17378,7 +17400,7 @@
         <v>1146</v>
       </c>
       <c r="K334" t="n">
-        <v>-22.80701754385965</v>
+        <v>0</v>
       </c>
       <c r="L334" t="n">
         <v>270.4</v>
@@ -17429,7 +17451,7 @@
         <v>1147</v>
       </c>
       <c r="K335" t="n">
-        <v>-20.68965517241379</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L335" t="n">
         <v>270.5</v>
@@ -17480,7 +17502,7 @@
         <v>1149</v>
       </c>
       <c r="K336" t="n">
-        <v>-3.846153846153846</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L336" t="n">
         <v>270.2</v>
@@ -17531,7 +17553,7 @@
         <v>1150</v>
       </c>
       <c r="K337" t="n">
-        <v>-10.20408163265306</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L337" t="n">
         <v>270.6</v>
@@ -17582,7 +17604,7 @@
         <v>1150</v>
       </c>
       <c r="K338" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L338" t="n">
         <v>271.1</v>
@@ -17633,7 +17655,7 @@
         <v>1159</v>
       </c>
       <c r="K339" t="n">
-        <v>-31.91489361702128</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L339" t="n">
         <v>270.6</v>
@@ -17684,7 +17706,7 @@
         <v>1166</v>
       </c>
       <c r="K340" t="n">
-        <v>-8</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L340" t="n">
         <v>270.9</v>
@@ -17735,7 +17757,7 @@
         <v>1168</v>
       </c>
       <c r="K341" t="n">
-        <v>-8</v>
+        <v>4</v>
       </c>
       <c r="L341" t="n">
         <v>270.9</v>
@@ -17786,7 +17808,7 @@
         <v>1169</v>
       </c>
       <c r="K342" t="n">
-        <v>-14.28571428571428</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L342" t="n">
         <v>270.9</v>
@@ -17837,7 +17859,7 @@
         <v>1173</v>
       </c>
       <c r="K343" t="n">
-        <v>2.040816326530612</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L343" t="n">
         <v>271.1</v>
@@ -17888,7 +17910,7 @@
         <v>1174</v>
       </c>
       <c r="K344" t="n">
-        <v>4.166666666666666</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L344" t="n">
         <v>271.3</v>
@@ -17939,7 +17961,7 @@
         <v>1175</v>
       </c>
       <c r="K345" t="n">
-        <v>2.040816326530612</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L345" t="n">
         <v>271.3</v>
@@ -17990,7 +18012,7 @@
         <v>1177</v>
       </c>
       <c r="K346" t="n">
-        <v>-15.55555555555556</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L346" t="n">
         <v>270.9</v>
@@ -18041,7 +18063,7 @@
         <v>1178</v>
       </c>
       <c r="K347" t="n">
-        <v>-5</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L347" t="n">
         <v>270.3</v>
@@ -18092,7 +18114,7 @@
         <v>1178</v>
       </c>
       <c r="K348" t="n">
-        <v>-2.564102564102564</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L348" t="n">
         <v>269.7</v>
@@ -18143,7 +18165,7 @@
         <v>1178</v>
       </c>
       <c r="K349" t="n">
-        <v>-5.263157894736842</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L349" t="n">
         <v>270</v>
@@ -18194,7 +18216,7 @@
         <v>1178</v>
       </c>
       <c r="K350" t="n">
-        <v>-2.702702702702703</v>
+        <v>-20</v>
       </c>
       <c r="L350" t="n">
         <v>269.6</v>
@@ -18245,7 +18267,7 @@
         <v>1178</v>
       </c>
       <c r="K351" t="n">
-        <v>-5.555555555555555</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L351" t="n">
         <v>269.4</v>
@@ -18296,7 +18318,7 @@
         <v>1178</v>
       </c>
       <c r="K352" t="n">
-        <v>-2.857142857142857</v>
+        <v>-100</v>
       </c>
       <c r="L352" t="n">
         <v>269.3</v>
@@ -18347,7 +18369,7 @@
         <v>1179</v>
       </c>
       <c r="K353" t="n">
-        <v>-5.88235294117647</v>
+        <v>-60</v>
       </c>
       <c r="L353" t="n">
         <v>268.9</v>
@@ -18398,7 +18420,7 @@
         <v>1181</v>
       </c>
       <c r="K354" t="n">
-        <v>-8.571428571428571</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L354" t="n">
         <v>268.4</v>
@@ -18449,7 +18471,7 @@
         <v>1184</v>
       </c>
       <c r="K355" t="n">
-        <v>-2.702702702702703</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L355" t="n">
         <v>268.3</v>
@@ -18500,7 +18522,7 @@
         <v>1187</v>
       </c>
       <c r="K356" t="n">
-        <v>-15.78947368421053</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L356" t="n">
         <v>268.1</v>
@@ -18551,7 +18573,7 @@
         <v>1187</v>
       </c>
       <c r="K357" t="n">
-        <v>-18.91891891891892</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L357" t="n">
         <v>268</v>
@@ -18602,7 +18624,7 @@
         <v>1187</v>
       </c>
       <c r="K358" t="n">
-        <v>-18.91891891891892</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L358" t="n">
         <v>267.9</v>
@@ -18653,7 +18675,7 @@
         <v>1187</v>
       </c>
       <c r="K359" t="n">
-        <v>7.142857142857142</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L359" t="n">
         <v>267.8</v>
@@ -18704,7 +18726,7 @@
         <v>1187</v>
       </c>
       <c r="K360" t="n">
-        <v>-23.80952380952381</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L360" t="n">
         <v>267.7</v>
@@ -18755,7 +18777,7 @@
         <v>1187</v>
       </c>
       <c r="K361" t="n">
-        <v>-15.78947368421053</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L361" t="n">
         <v>267.6</v>
@@ -18806,7 +18828,7 @@
         <v>1187</v>
       </c>
       <c r="K362" t="n">
-        <v>-11.11111111111111</v>
+        <v>-25</v>
       </c>
       <c r="L362" t="n">
         <v>267.5</v>
@@ -18857,7 +18879,7 @@
         <v>1188</v>
       </c>
       <c r="K363" t="n">
-        <v>-46.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L363" t="n">
         <v>267.2</v>
@@ -18908,7 +18930,7 @@
         <v>1188</v>
       </c>
       <c r="K364" t="n">
-        <v>-42.85714285714285</v>
+        <v>-100</v>
       </c>
       <c r="L364" t="n">
         <v>267.1</v>
@@ -18959,7 +18981,7 @@
         <v>1188</v>
       </c>
       <c r="K365" t="n">
-        <v>-38.46153846153847</v>
+        <v>-100</v>
       </c>
       <c r="L365" t="n">
         <v>266.7</v>
@@ -19010,7 +19032,7 @@
         <v>1188</v>
       </c>
       <c r="K366" t="n">
-        <v>-27.27272727272727</v>
+        <v>-100</v>
       </c>
       <c r="L366" t="n">
         <v>266.6</v>
@@ -19061,7 +19083,7 @@
         <v>1188</v>
       </c>
       <c r="K367" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L367" t="n">
         <v>266.5</v>
@@ -19112,7 +19134,7 @@
         <v>1191</v>
       </c>
       <c r="K368" t="n">
-        <v>7.692307692307693</v>
+        <v>50</v>
       </c>
       <c r="L368" t="n">
         <v>266.7</v>
@@ -19163,7 +19185,7 @@
         <v>1191</v>
       </c>
       <c r="K369" t="n">
-        <v>7.692307692307693</v>
+        <v>50</v>
       </c>
       <c r="L369" t="n">
         <v>266.9</v>
@@ -19214,7 +19236,7 @@
         <v>1194</v>
       </c>
       <c r="K370" t="n">
-        <v>-12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L370" t="n">
         <v>266.8</v>
@@ -19265,7 +19287,7 @@
         <v>1194</v>
       </c>
       <c r="K371" t="n">
-        <v>-12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L371" t="n">
         <v>266.7</v>
@@ -19316,7 +19338,7 @@
         <v>1197</v>
       </c>
       <c r="K372" t="n">
-        <v>5.263157894736842</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L372" t="n">
         <v>266.9</v>
@@ -19367,7 +19389,7 @@
         <v>1201</v>
       </c>
       <c r="K373" t="n">
-        <v>-18.18181818181818</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L373" t="n">
         <v>266.8</v>
@@ -19418,7 +19440,7 @@
         <v>1201</v>
       </c>
       <c r="K374" t="n">
-        <v>-10</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L374" t="n">
         <v>266.7</v>
@@ -19469,7 +19491,7 @@
         <v>1201</v>
       </c>
       <c r="K375" t="n">
-        <v>-29.41176470588236</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L375" t="n">
         <v>266.6</v>
@@ -19520,7 +19542,7 @@
         <v>1202</v>
       </c>
       <c r="K376" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L376" t="n">
         <v>266.6</v>
@@ -19571,7 +19593,7 @@
         <v>1202</v>
       </c>
       <c r="K377" t="n">
-        <v>-6.666666666666667</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L377" t="n">
         <v>266.6</v>
@@ -19622,7 +19644,7 @@
         <v>1203</v>
       </c>
       <c r="K378" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L378" t="n">
         <v>266.4</v>
@@ -19673,7 +19695,7 @@
         <v>1203</v>
       </c>
       <c r="K379" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L379" t="n">
         <v>266.2</v>
@@ -19724,7 +19746,7 @@
         <v>1203</v>
       </c>
       <c r="K380" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L380" t="n">
         <v>266.3</v>
@@ -19775,7 +19797,7 @@
         <v>1203</v>
       </c>
       <c r="K381" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L381" t="n">
         <v>266.4</v>
@@ -19826,7 +19848,7 @@
         <v>1205</v>
       </c>
       <c r="K382" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L382" t="n">
         <v>266.4</v>
@@ -19877,7 +19899,7 @@
         <v>1205</v>
       </c>
       <c r="K383" t="n">
-        <v>17.64705882352941</v>
+        <v>100</v>
       </c>
       <c r="L383" t="n">
         <v>266.8</v>
@@ -19928,7 +19950,7 @@
         <v>1205</v>
       </c>
       <c r="K384" t="n">
-        <v>17.64705882352941</v>
+        <v>100</v>
       </c>
       <c r="L384" t="n">
         <v>267.2</v>
@@ -19979,7 +20001,7 @@
         <v>1209</v>
       </c>
       <c r="K385" t="n">
-        <v>-4.761904761904762</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L385" t="n">
         <v>267.2</v>
@@ -20030,7 +20052,7 @@
         <v>1212</v>
       </c>
       <c r="K386" t="n">
-        <v>-16.66666666666666</v>
+        <v>-40</v>
       </c>
       <c r="L386" t="n">
         <v>266.8</v>
@@ -20081,7 +20103,7 @@
         <v>1216</v>
       </c>
       <c r="K387" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L387" t="n">
         <v>266.8</v>
@@ -20132,7 +20154,7 @@
         <v>1218</v>
       </c>
       <c r="K388" t="n">
-        <v>-18.51851851851852</v>
+        <v>-20</v>
       </c>
       <c r="L388" t="n">
         <v>266.5</v>
@@ -20183,7 +20205,7 @@
         <v>1220</v>
       </c>
       <c r="K389" t="n">
-        <v>-10.3448275862069</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L389" t="n">
         <v>266.4</v>
@@ -20234,7 +20256,7 @@
         <v>1222</v>
       </c>
       <c r="K390" t="n">
-        <v>7.142857142857142</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L390" t="n">
         <v>266.5</v>
@@ -20285,7 +20307,7 @@
         <v>1222</v>
       </c>
       <c r="K391" t="n">
-        <v>7.142857142857142</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L391" t="n">
         <v>266.6</v>
@@ -20336,7 +20358,7 @@
         <v>1222</v>
       </c>
       <c r="K392" t="n">
-        <v>-4</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L392" t="n">
         <v>266.5</v>
@@ -20387,7 +20409,7 @@
         <v>1223</v>
       </c>
       <c r="K393" t="n">
-        <v>9.090909090909092</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L393" t="n">
         <v>266.3</v>
@@ -20438,7 +20460,7 @@
         <v>1226</v>
       </c>
       <c r="K394" t="n">
-        <v>-4</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L394" t="n">
         <v>265.8</v>
@@ -20489,7 +20511,7 @@
         <v>1229</v>
       </c>
       <c r="K395" t="n">
-        <v>7.142857142857142</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L395" t="n">
         <v>266</v>
@@ -20540,7 +20562,7 @@
         <v>1230</v>
       </c>
       <c r="K396" t="n">
-        <v>7.142857142857142</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L396" t="n">
         <v>266.6</v>
@@ -20591,7 +20613,7 @@
         <v>1232</v>
       </c>
       <c r="K397" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L397" t="n">
         <v>266.6</v>
@@ -20642,7 +20664,7 @@
         <v>1234</v>
       </c>
       <c r="K398" t="n">
-        <v>-9.67741935483871</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L398" t="n">
         <v>266.6</v>
@@ -20693,7 +20715,7 @@
         <v>1236</v>
       </c>
       <c r="K399" t="n">
-        <v>-3.03030303030303</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L399" t="n">
         <v>266.6</v>
@@ -20744,7 +20766,7 @@
         <v>1237</v>
       </c>
       <c r="K400" t="n">
-        <v>-5.88235294117647</v>
+        <v>-20</v>
       </c>
       <c r="L400" t="n">
         <v>266.3</v>
@@ -20795,7 +20817,7 @@
         <v>1237</v>
       </c>
       <c r="K401" t="n">
-        <v>-5.88235294117647</v>
+        <v>-20</v>
       </c>
       <c r="L401" t="n">
         <v>266</v>
@@ -20846,7 +20868,7 @@
         <v>1238</v>
       </c>
       <c r="K402" t="n">
-        <v>-9.090909090909092</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L402" t="n">
         <v>265.8</v>
@@ -20897,7 +20919,7 @@
         <v>1239</v>
       </c>
       <c r="K403" t="n">
-        <v>-5.88235294117647</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L403" t="n">
         <v>265.8</v>
@@ -20948,7 +20970,7 @@
         <v>1239</v>
       </c>
       <c r="K404" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L404" t="n">
         <v>266.1</v>
@@ -20999,7 +21021,7 @@
         <v>1240</v>
       </c>
       <c r="K405" t="n">
-        <v>9.67741935483871</v>
+        <v>0</v>
       </c>
       <c r="L405" t="n">
         <v>266.2</v>
@@ -21050,7 +21072,7 @@
         <v>1241</v>
       </c>
       <c r="K406" t="n">
-        <v>24.13793103448276</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L406" t="n">
         <v>266.3</v>
@@ -21101,7 +21123,7 @@
         <v>1242</v>
       </c>
       <c r="K407" t="n">
-        <v>15.38461538461539</v>
+        <v>75</v>
       </c>
       <c r="L407" t="n">
         <v>266.7</v>
@@ -21152,7 +21174,7 @@
         <v>1243</v>
       </c>
       <c r="K408" t="n">
-        <v>20</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L408" t="n">
         <v>267.2</v>
@@ -21203,7 +21225,7 @@
         <v>1244</v>
       </c>
       <c r="K409" t="n">
-        <v>8.333333333333332</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L409" t="n">
         <v>267.4</v>
@@ -21254,7 +21276,7 @@
         <v>1244</v>
       </c>
       <c r="K410" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L410" t="n">
         <v>267.7</v>
@@ -21305,7 +21327,7 @@
         <v>1259</v>
       </c>
       <c r="K411" t="n">
-        <v>40.54054054054054</v>
+        <v>80.95238095238095</v>
       </c>
       <c r="L411" t="n">
         <v>269.5</v>
@@ -21356,7 +21378,7 @@
         <v>1274</v>
       </c>
       <c r="K412" t="n">
-        <v>0</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="L412" t="n">
         <v>269.7</v>
@@ -21407,7 +21429,7 @@
         <v>1284</v>
       </c>
       <c r="K413" t="n">
-        <v>18.0327868852459</v>
+        <v>24.44444444444444</v>
       </c>
       <c r="L413" t="n">
         <v>270.8</v>
@@ -21458,7 +21480,7 @@
         <v>1295</v>
       </c>
       <c r="K414" t="n">
-        <v>4.347826086956522</v>
+        <v>-1.818181818181818</v>
       </c>
       <c r="L414" t="n">
         <v>270.8</v>
@@ -21509,7 +21531,7 @@
         <v>1297</v>
       </c>
       <c r="K415" t="n">
-        <v>2.941176470588235</v>
+        <v>0</v>
       </c>
       <c r="L415" t="n">
         <v>270.9</v>
@@ -21560,7 +21582,7 @@
         <v>1299</v>
       </c>
       <c r="K416" t="n">
-        <v>4.347826086956522</v>
+        <v>1.754385964912281</v>
       </c>
       <c r="L416" t="n">
         <v>271.1</v>
@@ -21611,7 +21633,7 @@
         <v>1302</v>
       </c>
       <c r="K417" t="n">
-        <v>2.857142857142857</v>
+        <v>-1.694915254237288</v>
       </c>
       <c r="L417" t="n">
         <v>270.9</v>
@@ -21662,7 +21684,7 @@
         <v>1303</v>
       </c>
       <c r="K418" t="n">
-        <v>4.347826086956522</v>
+        <v>-1.694915254237288</v>
       </c>
       <c r="L418" t="n">
         <v>270.7</v>
@@ -21713,7 +21735,7 @@
         <v>1306</v>
       </c>
       <c r="K419" t="n">
-        <v>5.714285714285714</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L419" t="n">
         <v>270.9</v>
@@ -21764,7 +21786,7 @@
         <v>1306</v>
       </c>
       <c r="K420" t="n">
-        <v>7.246376811594203</v>
+        <v>-27.65957446808511</v>
       </c>
       <c r="L420" t="n">
         <v>271.1</v>
@@ -21815,7 +21837,7 @@
         <v>1306</v>
       </c>
       <c r="K421" t="n">
-        <v>7.246376811594203</v>
+        <v>6.25</v>
       </c>
       <c r="L421" t="n">
         <v>269.8</v>
@@ -21866,7 +21888,7 @@
         <v>1306</v>
       </c>
       <c r="K422" t="n">
-        <v>5.88235294117647</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L422" t="n">
         <v>270</v>
@@ -21917,7 +21939,7 @@
         <v>1306</v>
       </c>
       <c r="K423" t="n">
-        <v>4.477611940298507</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L423" t="n">
         <v>269.2</v>
@@ -21968,7 +21990,7 @@
         <v>1309</v>
       </c>
       <c r="K424" t="n">
-        <v>8.571428571428571</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L424" t="n">
         <v>269.8</v>
@@ -22019,7 +22041,7 @@
         <v>1310</v>
       </c>
       <c r="K425" t="n">
-        <v>8.571428571428571</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L425" t="n">
         <v>270.3</v>
@@ -22070,7 +22092,7 @@
         <v>1311</v>
       </c>
       <c r="K426" t="n">
-        <v>5.714285714285714</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L426" t="n">
         <v>270.5</v>
@@ -22121,7 +22143,7 @@
         <v>1318</v>
       </c>
       <c r="K427" t="n">
-        <v>13.1578947368421</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="L427" t="n">
         <v>271.7</v>
@@ -22172,7 +22194,7 @@
         <v>1323</v>
       </c>
       <c r="K428" t="n">
-        <v>7.5</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L428" t="n">
         <v>272.5</v>
@@ -22223,7 +22245,7 @@
         <v>1325</v>
       </c>
       <c r="K429" t="n">
-        <v>11.11111111111111</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L429" t="n">
         <v>273.2</v>
@@ -22274,7 +22296,7 @@
         <v>1328</v>
       </c>
       <c r="K430" t="n">
-        <v>7.142857142857142</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L430" t="n">
         <v>273.6</v>
@@ -22325,7 +22347,7 @@
         <v>1338</v>
       </c>
       <c r="K431" t="n">
-        <v>1.265822784810127</v>
+        <v>43.75</v>
       </c>
       <c r="L431" t="n">
         <v>275</v>
@@ -22376,7 +22398,7 @@
         <v>1346</v>
       </c>
       <c r="K432" t="n">
-        <v>11.11111111111111</v>
+        <v>15</v>
       </c>
       <c r="L432" t="n">
         <v>275.6</v>
@@ -22427,7 +22449,7 @@
         <v>1350</v>
       </c>
       <c r="K433" t="n">
-        <v>-9.090909090909092</v>
+        <v>-2.439024390243902</v>
       </c>
       <c r="L433" t="n">
         <v>275.8</v>
@@ -22478,7 +22500,7 @@
         <v>1352</v>
       </c>
       <c r="K434" t="n">
-        <v>5.263157894736842</v>
+        <v>-9.523809523809524</v>
       </c>
       <c r="L434" t="n">
         <v>275.5</v>
@@ -22529,7 +22551,7 @@
         <v>1360</v>
       </c>
       <c r="K435" t="n">
-        <v>14.28571428571428</v>
+        <v>10.20408163265306</v>
       </c>
       <c r="L435" t="n">
         <v>275.9</v>
@@ -22580,7 +22602,7 @@
         <v>1365</v>
       </c>
       <c r="K436" t="n">
-        <v>3.03030303030303</v>
+        <v>-14.8936170212766</v>
       </c>
       <c r="L436" t="n">
         <v>275.9</v>
@@ -22631,7 +22653,7 @@
         <v>1366</v>
       </c>
       <c r="K437" t="n">
-        <v>9.375</v>
+        <v>-2.325581395348837</v>
       </c>
       <c r="L437" t="n">
         <v>275.3</v>
@@ -22682,7 +22704,7 @@
         <v>1366</v>
       </c>
       <c r="K438" t="n">
-        <v>11.11111111111111</v>
+        <v>-7.317073170731707</v>
       </c>
       <c r="L438" t="n">
         <v>275.2</v>
@@ -22733,7 +22755,7 @@
         <v>1366</v>
       </c>
       <c r="K439" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L439" t="n">
         <v>274.9</v>
@@ -22784,7 +22806,7 @@
         <v>1366</v>
       </c>
       <c r="K440" t="n">
-        <v>6.666666666666667</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L440" t="n">
         <v>274.9</v>
@@ -22835,7 +22857,7 @@
         <v>1366</v>
       </c>
       <c r="K441" t="n">
-        <v>6.666666666666667</v>
+        <v>-10</v>
       </c>
       <c r="L441" t="n">
         <v>273.9</v>
@@ -22886,7 +22908,7 @@
         <v>1366</v>
       </c>
       <c r="K442" t="n">
-        <v>6.666666666666667</v>
+        <v>12.5</v>
       </c>
       <c r="L442" t="n">
         <v>273.7</v>
@@ -22937,7 +22959,7 @@
         <v>1372</v>
       </c>
       <c r="K443" t="n">
-        <v>-3.03030303030303</v>
+        <v>-10</v>
       </c>
       <c r="L443" t="n">
         <v>273.3</v>
@@ -22988,7 +23010,7 @@
         <v>1376</v>
       </c>
       <c r="K444" t="n">
-        <v>-1.492537313432836</v>
+        <v>-37.5</v>
       </c>
       <c r="L444" t="n">
         <v>273.5</v>
@@ -23039,7 +23061,7 @@
         <v>1380</v>
       </c>
       <c r="K445" t="n">
-        <v>2.857142857142857</v>
+        <v>20</v>
       </c>
       <c r="L445" t="n">
         <v>273.3</v>
@@ -23090,7 +23112,7 @@
         <v>1380</v>
       </c>
       <c r="K446" t="n">
-        <v>4.347826086956522</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L446" t="n">
         <v>273.6</v>
@@ -23141,7 +23163,7 @@
         <v>1383</v>
       </c>
       <c r="K447" t="n">
-        <v>-10.76923076923077</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L447" t="n">
         <v>273.5</v>
@@ -23192,7 +23214,7 @@
         <v>1385</v>
       </c>
       <c r="K448" t="n">
-        <v>-6.451612903225806</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L448" t="n">
         <v>273.2</v>
@@ -23243,7 +23265,7 @@
         <v>1387</v>
       </c>
       <c r="K449" t="n">
-        <v>-12.90322580645161</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L449" t="n">
         <v>272.7</v>
@@ -23294,7 +23316,7 @@
         <v>1387</v>
       </c>
       <c r="K450" t="n">
-        <v>-8.474576271186439</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L450" t="n">
         <v>272.2</v>
@@ -23345,7 +23367,7 @@
         <v>1387</v>
       </c>
       <c r="K451" t="n">
-        <v>-30.61224489795918</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L451" t="n">
         <v>271.7</v>
@@ -23396,7 +23418,7 @@
         <v>1388</v>
       </c>
       <c r="K452" t="n">
-        <v>-14.28571428571428</v>
+        <v>12.5</v>
       </c>
       <c r="L452" t="n">
         <v>271.3</v>
@@ -23447,7 +23469,7 @@
         <v>1389</v>
       </c>
       <c r="K453" t="n">
-        <v>-7.692307692307693</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L453" t="n">
         <v>271.4</v>
@@ -23498,7 +23520,7 @@
         <v>1395</v>
       </c>
       <c r="K454" t="n">
-        <v>11.62790697674419</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L454" t="n">
         <v>271.7</v>
@@ -23549,7 +23571,7 @@
         <v>1402</v>
       </c>
       <c r="K455" t="n">
-        <v>-23.80952380952381</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L455" t="n">
         <v>270.9</v>
@@ -23600,7 +23622,7 @@
         <v>1402</v>
       </c>
       <c r="K456" t="n">
-        <v>-13.51351351351351</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L456" t="n">
         <v>270.1</v>
@@ -23651,7 +23673,7 @@
         <v>1402</v>
       </c>
       <c r="K457" t="n">
-        <v>-16.66666666666666</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L457" t="n">
         <v>269.6</v>
@@ -23702,7 +23724,7 @@
         <v>1406</v>
       </c>
       <c r="K458" t="n">
-        <v>-5</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L458" t="n">
         <v>269.7</v>
@@ -23753,7 +23775,7 @@
         <v>1407</v>
       </c>
       <c r="K459" t="n">
-        <v>-2.439024390243902</v>
+        <v>20</v>
       </c>
       <c r="L459" t="n">
         <v>270.1</v>
@@ -23804,7 +23826,7 @@
         <v>1410</v>
       </c>
       <c r="K460" t="n">
-        <v>-9.090909090909092</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L460" t="n">
         <v>270.2</v>
@@ -23855,7 +23877,7 @@
         <v>1413</v>
       </c>
       <c r="K461" t="n">
-        <v>-2.127659574468085</v>
+        <v>12</v>
       </c>
       <c r="L461" t="n">
         <v>270.6</v>
@@ -23906,7 +23928,7 @@
         <v>1413</v>
       </c>
       <c r="K462" t="n">
-        <v>-2.127659574468085</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L462" t="n">
         <v>270.9</v>
@@ -23957,7 +23979,7 @@
         <v>1419</v>
       </c>
       <c r="K463" t="n">
-        <v>-2.127659574468085</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L463" t="n">
         <v>270.7</v>
@@ -24008,7 +24030,7 @@
         <v>1420</v>
       </c>
       <c r="K464" t="n">
-        <v>-13.63636363636363</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L464" t="n">
         <v>269.8</v>
@@ -24059,7 +24081,7 @@
         <v>1420</v>
       </c>
       <c r="K465" t="n">
-        <v>-25</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L465" t="n">
         <v>269.6</v>
@@ -24110,7 +24132,7 @@
         <v>1420</v>
       </c>
       <c r="K466" t="n">
-        <v>-25</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L466" t="n">
         <v>269.4</v>
@@ -24161,7 +24183,7 @@
         <v>1422</v>
       </c>
       <c r="K467" t="n">
-        <v>-23.07692307692308</v>
+        <v>-50</v>
       </c>
       <c r="L467" t="n">
         <v>269</v>
@@ -24212,7 +24234,7 @@
         <v>1431</v>
       </c>
       <c r="K468" t="n">
-        <v>4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L468" t="n">
         <v>269.1</v>
@@ -24263,7 +24285,7 @@
         <v>1438</v>
       </c>
       <c r="K469" t="n">
-        <v>-5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L469" t="n">
         <v>268.4</v>
@@ -24314,7 +24336,7 @@
         <v>1440</v>
       </c>
       <c r="K470" t="n">
-        <v>-1.886792452830189</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L470" t="n">
         <v>268.2</v>
@@ -24365,7 +24387,7 @@
         <v>1440</v>
       </c>
       <c r="K471" t="n">
-        <v>-1.886792452830189</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L471" t="n">
         <v>267.7</v>
@@ -24416,7 +24438,7 @@
         <v>1440</v>
       </c>
       <c r="K472" t="n">
-        <v>-3.846153846153846</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L472" t="n">
         <v>267.2</v>
@@ -24467,7 +24489,7 @@
         <v>1442</v>
       </c>
       <c r="K473" t="n">
-        <v>1.886792452830189</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L473" t="n">
         <v>267.5</v>
@@ -24518,7 +24540,7 @@
         <v>1442</v>
       </c>
       <c r="K474" t="n">
-        <v>-10.63829787234043</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L474" t="n">
         <v>267.9</v>
@@ -24569,7 +24591,7 @@
         <v>1442</v>
       </c>
       <c r="K475" t="n">
-        <v>5</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L475" t="n">
         <v>268.3</v>
@@ -24620,7 +24642,7 @@
         <v>1445</v>
       </c>
       <c r="K476" t="n">
-        <v>-2.325581395348837</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L476" t="n">
         <v>268.4</v>
@@ -24671,7 +24693,7 @@
         <v>1446</v>
       </c>
       <c r="K477" t="n">
-        <v>-4.545454545454546</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L477" t="n">
         <v>268.6</v>
@@ -24722,7 +24744,7 @@
         <v>1446</v>
       </c>
       <c r="K478" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="L478" t="n">
         <v>267.9</v>
@@ -24773,7 +24795,7 @@
         <v>1446</v>
       </c>
       <c r="K479" t="n">
-        <v>-17.94871794871795</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L479" t="n">
         <v>267.9</v>
@@ -24824,7 +24846,7 @@
         <v>1448</v>
       </c>
       <c r="K480" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L480" t="n">
         <v>267.9</v>
@@ -24875,7 +24897,7 @@
         <v>1450</v>
       </c>
       <c r="K481" t="n">
-        <v>-8.108108108108109</v>
+        <v>20</v>
       </c>
       <c r="L481" t="n">
         <v>268.1</v>
@@ -24926,7 +24948,7 @@
         <v>1450</v>
       </c>
       <c r="K482" t="n">
-        <v>-8.108108108108109</v>
+        <v>0</v>
       </c>
       <c r="L482" t="n">
         <v>268.3</v>
@@ -24977,7 +24999,7 @@
         <v>1450</v>
       </c>
       <c r="K483" t="n">
-        <v>9.67741935483871</v>
+        <v>0</v>
       </c>
       <c r="L483" t="n">
         <v>268.3</v>
@@ -25028,7 +25050,7 @@
         <v>1452</v>
       </c>
       <c r="K484" t="n">
-        <v>18.75</v>
+        <v>20</v>
       </c>
       <c r="L484" t="n">
         <v>268.5</v>
@@ -25079,7 +25101,7 @@
         <v>1452</v>
       </c>
       <c r="K485" t="n">
-        <v>18.75</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L485" t="n">
         <v>268.7</v>
@@ -25130,7 +25152,7 @@
         <v>1457</v>
       </c>
       <c r="K486" t="n">
-        <v>2.702702702702703</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L486" t="n">
         <v>268.7</v>
@@ -25181,7 +25203,7 @@
         <v>1457</v>
       </c>
       <c r="K487" t="n">
-        <v>8.571428571428571</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L487" t="n">
         <v>268.8</v>
@@ -25232,7 +25254,7 @@
         <v>1458</v>
       </c>
       <c r="K488" t="n">
-        <v>-18.51851851851852</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L488" t="n">
         <v>269</v>
@@ -25283,7 +25305,7 @@
         <v>1460</v>
       </c>
       <c r="K489" t="n">
-        <v>18.18181818181818</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L489" t="n">
         <v>269.4</v>
@@ -25334,7 +25356,7 @@
         <v>1461</v>
       </c>
       <c r="K490" t="n">
-        <v>14.28571428571428</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L490" t="n">
         <v>269.7</v>
@@ -25385,7 +25407,7 @@
         <v>1461</v>
       </c>
       <c r="K491" t="n">
-        <v>14.28571428571428</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L491" t="n">
         <v>269.8</v>
@@ -25436,7 +25458,7 @@
         <v>1465</v>
       </c>
       <c r="K492" t="n">
-        <v>28</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L492" t="n">
         <v>270.3</v>
@@ -25487,7 +25509,7 @@
         <v>1472</v>
       </c>
       <c r="K493" t="n">
-        <v>-6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L493" t="n">
         <v>270.1</v>
@@ -25538,7 +25560,7 @@
         <v>1473</v>
       </c>
       <c r="K494" t="n">
-        <v>-3.225806451612903</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L494" t="n">
         <v>269.8</v>
@@ -25589,7 +25611,7 @@
         <v>1474</v>
       </c>
       <c r="K495" t="n">
-        <v>0</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L495" t="n">
         <v>269.6</v>
@@ -25640,7 +25662,7 @@
         <v>1476</v>
       </c>
       <c r="K496" t="n">
-        <v>16.12903225806452</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L496" t="n">
         <v>270.1</v>
@@ -25691,7 +25713,7 @@
         <v>1485</v>
       </c>
       <c r="K497" t="n">
-        <v>38.46153846153847</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="L497" t="n">
         <v>271.5</v>
@@ -25742,7 +25764,7 @@
         <v>1491</v>
       </c>
       <c r="K498" t="n">
-        <v>20</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L498" t="n">
         <v>272.2</v>
@@ -25793,7 +25815,7 @@
         <v>1492</v>
       </c>
       <c r="K499" t="n">
-        <v>17.39130434782609</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L499" t="n">
         <v>272.6</v>
@@ -25844,7 +25866,7 @@
         <v>1493</v>
       </c>
       <c r="K500" t="n">
-        <v>15.55555555555556</v>
+        <v>12.5</v>
       </c>
       <c r="L500" t="n">
         <v>273</v>
@@ -25895,7 +25917,7 @@
         <v>1493</v>
       </c>
       <c r="K501" t="n">
-        <v>11.62790697674419</v>
+        <v>0</v>
       </c>
       <c r="L501" t="n">
         <v>273.4</v>
@@ -25946,7 +25968,7 @@
         <v>1495</v>
       </c>
       <c r="K502" t="n">
-        <v>6.666666666666667</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L502" t="n">
         <v>273.2</v>
@@ -25997,7 +26019,7 @@
         <v>1495</v>
       </c>
       <c r="K503" t="n">
-        <v>6.666666666666667</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L503" t="n">
         <v>273.7</v>
@@ -26048,7 +26070,7 @@
         <v>1495</v>
       </c>
       <c r="K504" t="n">
-        <v>2.325581395348837</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L504" t="n">
         <v>274.1</v>
@@ -26099,7 +26121,7 @@
         <v>1495</v>
       </c>
       <c r="K505" t="n">
-        <v>2.325581395348837</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L505" t="n">
         <v>274.4</v>
@@ -26150,7 +26172,7 @@
         <v>1498</v>
       </c>
       <c r="K506" t="n">
-        <v>7.317073170731707</v>
+        <v>-84.61538461538461</v>
       </c>
       <c r="L506" t="n">
         <v>274.2</v>
@@ -26201,7 +26223,7 @@
         <v>1498</v>
       </c>
       <c r="K507" t="n">
-        <v>7.317073170731707</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L507" t="n">
         <v>273.1</v>
@@ -26252,7 +26274,7 @@
         <v>1498</v>
       </c>
       <c r="K508" t="n">
-        <v>5</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L508" t="n">
         <v>272.6</v>
@@ -26303,7 +26325,7 @@
         <v>1505</v>
       </c>
       <c r="K509" t="n">
-        <v>15.55555555555556</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L509" t="n">
         <v>272.9</v>
@@ -26354,7 +26376,7 @@
         <v>1506</v>
       </c>
       <c r="K510" t="n">
-        <v>15.55555555555556</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L510" t="n">
         <v>273.2</v>
@@ -26405,7 +26427,7 @@
         <v>1509</v>
       </c>
       <c r="K511" t="n">
-        <v>8.333333333333332</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L511" t="n">
         <v>273.2</v>
@@ -26456,7 +26478,7 @@
         <v>1510</v>
       </c>
       <c r="K512" t="n">
-        <v>-2.222222222222222</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L512" t="n">
         <v>273.3</v>
@@ -26507,7 +26529,7 @@
         <v>1510</v>
       </c>
       <c r="K513" t="n">
-        <v>15.78947368421053</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L513" t="n">
         <v>273.4</v>
@@ -26558,7 +26580,7 @@
         <v>1511</v>
       </c>
       <c r="K514" t="n">
-        <v>15.78947368421053</v>
+        <v>12.5</v>
       </c>
       <c r="L514" t="n">
         <v>273.6</v>
@@ -26609,7 +26631,7 @@
         <v>1515</v>
       </c>
       <c r="K515" t="n">
-        <v>2.439024390243902</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L515" t="n">
         <v>273.4</v>
@@ -26660,7 +26682,7 @@
         <v>1518</v>
       </c>
       <c r="K516" t="n">
-        <v>4.761904761904762</v>
+        <v>20</v>
       </c>
       <c r="L516" t="n">
         <v>273.8</v>
@@ -26711,7 +26733,7 @@
         <v>1519</v>
       </c>
       <c r="K517" t="n">
-        <v>-17.64705882352941</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L517" t="n">
         <v>274.3</v>
@@ -26762,7 +26784,7 @@
         <v>1520</v>
       </c>
       <c r="K518" t="n">
-        <v>-3.448275862068965</v>
+        <v>-20</v>
       </c>
       <c r="L518" t="n">
         <v>274.7</v>
@@ -26813,7 +26835,7 @@
         <v>1520</v>
       </c>
       <c r="K519" t="n">
-        <v>0</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L519" t="n">
         <v>274.4</v>
@@ -26915,7 +26937,7 @@
         <v>1522</v>
       </c>
       <c r="K521" t="n">
-        <v>-3.448275862068965</v>
+        <v>0</v>
       </c>
       <c r="L521" t="n">
         <v>274</v>
@@ -26966,7 +26988,7 @@
         <v>1522</v>
       </c>
       <c r="K522" t="n">
-        <v>3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L522" t="n">
         <v>274</v>
@@ -27017,7 +27039,7 @@
         <v>1527</v>
       </c>
       <c r="K523" t="n">
-        <v>-12.5</v>
+        <v>-37.5</v>
       </c>
       <c r="L523" t="n">
         <v>273.5</v>
@@ -27068,7 +27090,7 @@
         <v>1535</v>
       </c>
       <c r="K524" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L524" t="n">
         <v>273.7</v>
@@ -27119,7 +27141,7 @@
         <v>1541</v>
       </c>
       <c r="K525" t="n">
-        <v>-4.347826086956522</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L525" t="n">
         <v>273.7</v>
@@ -27170,7 +27192,7 @@
         <v>1544</v>
       </c>
       <c r="K526" t="n">
-        <v>8.695652173913043</v>
+        <v>-4</v>
       </c>
       <c r="L526" t="n">
         <v>273.7</v>
@@ -27221,7 +27243,7 @@
         <v>1546</v>
       </c>
       <c r="K527" t="n">
-        <v>4.166666666666666</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L527" t="n">
         <v>273.4</v>
@@ -27272,7 +27294,7 @@
         <v>1547</v>
       </c>
       <c r="K528" t="n">
-        <v>6.122448979591836</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L528" t="n">
         <v>273.3</v>
@@ -27323,7 +27345,7 @@
         <v>1547</v>
       </c>
       <c r="K529" t="n">
-        <v>-9.523809523809524</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L529" t="n">
         <v>273.2</v>
@@ -27374,7 +27396,7 @@
         <v>1549</v>
       </c>
       <c r="K530" t="n">
-        <v>-16.27906976744186</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L530" t="n">
         <v>272.8</v>
@@ -27425,7 +27447,7 @@
         <v>1550</v>
       </c>
       <c r="K531" t="n">
-        <v>-7.317073170731707</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L531" t="n">
         <v>272.6</v>
@@ -27476,7 +27498,7 @@
         <v>1550</v>
       </c>
       <c r="K532" t="n">
-        <v>-5</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L532" t="n">
         <v>272.4</v>
@@ -27527,7 +27549,7 @@
         <v>1552</v>
       </c>
       <c r="K533" t="n">
-        <v>-9.523809523809524</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L533" t="n">
         <v>272.5</v>
@@ -27578,7 +27600,7 @@
         <v>1553</v>
       </c>
       <c r="K534" t="n">
-        <v>-9.523809523809524</v>
+        <v>0</v>
       </c>
       <c r="L534" t="n">
         <v>271.9</v>
@@ -27629,7 +27651,7 @@
         <v>1553</v>
       </c>
       <c r="K535" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L535" t="n">
         <v>271.9</v>
@@ -27680,7 +27702,7 @@
         <v>1554</v>
       </c>
       <c r="K536" t="n">
-        <v>-5.555555555555555</v>
+        <v>0</v>
       </c>
       <c r="L536" t="n">
         <v>271.7</v>
@@ -27731,7 +27753,7 @@
         <v>1555</v>
       </c>
       <c r="K537" t="n">
-        <v>-5.555555555555555</v>
+        <v>0</v>
       </c>
       <c r="L537" t="n">
         <v>271.8</v>
@@ -27782,7 +27804,7 @@
         <v>1556</v>
       </c>
       <c r="K538" t="n">
-        <v>-5.555555555555555</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L538" t="n">
         <v>271.7</v>
@@ -27833,7 +27855,7 @@
         <v>1558</v>
       </c>
       <c r="K539" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L539" t="n">
         <v>271.8</v>
@@ -27884,7 +27906,7 @@
         <v>1558</v>
       </c>
       <c r="K540" t="n">
-        <v>-2.702702702702703</v>
+        <v>25</v>
       </c>
       <c r="L540" t="n">
         <v>272.1</v>
@@ -27935,7 +27957,7 @@
         <v>1559</v>
       </c>
       <c r="K541" t="n">
-        <v>2.702702702702703</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L541" t="n">
         <v>272.4</v>
@@ -27986,7 +28008,7 @@
         <v>1560</v>
       </c>
       <c r="K542" t="n">
-        <v>5.263157894736842</v>
+        <v>75</v>
       </c>
       <c r="L542" t="n">
         <v>272.8</v>
@@ -28037,7 +28059,7 @@
         <v>1562</v>
       </c>
       <c r="K543" t="n">
-        <v>25.71428571428571</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L543" t="n">
         <v>273.6</v>
@@ -28088,7 +28110,7 @@
         <v>1562</v>
       </c>
       <c r="K544" t="n">
-        <v>3.703703703703703</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L544" t="n">
         <v>274.3</v>
@@ -28139,7 +28161,7 @@
         <v>1562</v>
       </c>
       <c r="K545" t="n">
-        <v>33.33333333333333</v>
+        <v>75</v>
       </c>
       <c r="L545" t="n">
         <v>275</v>
@@ -28190,7 +28212,7 @@
         <v>1563</v>
       </c>
       <c r="K546" t="n">
-        <v>26.31578947368421</v>
+        <v>75</v>
       </c>
       <c r="L546" t="n">
         <v>275.7</v>

--- a/BackTest/2019-10-11 BackTest TRUE.xlsx
+++ b/BackTest/2019-10-11 BackTest TRUE.xlsx
@@ -12001,14 +12001,20 @@
         <v>292.4666666666666</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
       </c>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>270</v>
+      </c>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12036,14 +12042,20 @@
         <v>291.7666666666667</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
       </c>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>269</v>
+      </c>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12071,14 +12083,20 @@
         <v>290.9666666666666</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
       </c>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>271</v>
+      </c>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12106,14 +12124,20 @@
         <v>290.3</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
       </c>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>270</v>
+      </c>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12141,14 +12165,20 @@
         <v>289.6166666666667</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>271</v>
+      </c>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12183,7 +12213,11 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12218,7 +12252,11 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12253,7 +12291,11 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12288,7 +12330,11 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12323,7 +12369,11 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12358,7 +12408,11 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12393,7 +12447,11 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -12428,7 +12486,11 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -12463,7 +12525,11 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -12498,7 +12564,11 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -12526,18 +12596,16 @@
         <v>282.2333333333333</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
       </c>
-      <c r="J347" t="n">
-        <v>269</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
       <c r="L347" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M347" t="n">
@@ -12567,14 +12635,12 @@
         <v>281.5</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="n">
-        <v>268</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
       <c r="L348" t="inlineStr">
         <is>
@@ -12608,14 +12674,12 @@
         <v>280.7833333333334</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
       </c>
-      <c r="J349" t="n">
-        <v>268</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
       <c r="L349" t="inlineStr">
         <is>
@@ -12691,7 +12755,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
@@ -12730,7 +12794,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
@@ -12769,7 +12833,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
@@ -12808,7 +12872,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
@@ -12964,16 +13028,18 @@
         <v>0</v>
       </c>
       <c r="I358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
       <c r="L358" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M358" t="inlineStr"/>
+      <c r="M358" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -13001,14 +13067,16 @@
         <v>0</v>
       </c>
       <c r="I359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
-      <c r="M359" t="n">
-        <v>1</v>
-      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -13036,7 +13104,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
@@ -13071,7 +13139,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
@@ -13211,7 +13279,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
@@ -13246,7 +13314,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
@@ -13561,7 +13629,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
@@ -13596,7 +13664,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
@@ -13631,7 +13699,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
@@ -13666,7 +13734,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
@@ -13701,7 +13769,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
@@ -13736,7 +13804,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
@@ -13806,7 +13874,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
@@ -14013,20 +14081,14 @@
         <v>268.05</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
       </c>
-      <c r="J388" t="n">
-        <v>266</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L388" t="inlineStr"/>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14054,20 +14116,14 @@
         <v>267.9833333333333</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
       </c>
-      <c r="J389" t="n">
-        <v>264</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L389" t="inlineStr"/>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14095,20 +14151,14 @@
         <v>267.9666666666666</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
       </c>
-      <c r="J390" t="n">
-        <v>266</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L390" t="inlineStr"/>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14136,20 +14186,14 @@
         <v>267.9333333333333</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
       </c>
-      <c r="J391" t="n">
-        <v>268</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L391" t="inlineStr"/>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14177,20 +14221,14 @@
         <v>267.9166666666667</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
       </c>
-      <c r="J392" t="n">
-        <v>268</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L392" t="inlineStr"/>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14218,20 +14256,14 @@
         <v>267.85</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
       </c>
-      <c r="J393" t="n">
-        <v>267</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L393" t="inlineStr"/>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14259,20 +14291,14 @@
         <v>267.75</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
       </c>
-      <c r="J394" t="n">
-        <v>265</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L394" t="inlineStr"/>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14300,20 +14326,14 @@
         <v>267.6833333333333</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
       </c>
-      <c r="J395" t="n">
-        <v>267</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L395" t="inlineStr"/>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14341,20 +14361,14 @@
         <v>267.6</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
       </c>
-      <c r="J396" t="n">
-        <v>265</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L396" t="inlineStr"/>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14382,20 +14396,14 @@
         <v>267.4666666666666</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
       </c>
-      <c r="J397" t="n">
-        <v>266</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L397" t="inlineStr"/>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -14423,20 +14431,14 @@
         <v>267.3</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
       </c>
-      <c r="J398" t="n">
-        <v>264</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L398" t="inlineStr"/>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -14464,20 +14466,14 @@
         <v>267.3166666666667</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
       </c>
-      <c r="J399" t="n">
-        <v>266</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L399" t="inlineStr"/>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -14505,20 +14501,14 @@
         <v>267.2</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
       </c>
-      <c r="J400" t="n">
-        <v>265</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L400" t="inlineStr"/>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -14546,20 +14536,14 @@
         <v>267.1166666666667</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
       </c>
-      <c r="J401" t="n">
-        <v>265</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L401" t="inlineStr"/>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -14587,20 +14571,14 @@
         <v>267.0666666666667</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
       </c>
-      <c r="J402" t="n">
-        <v>266</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L402" t="inlineStr"/>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -14628,20 +14606,14 @@
         <v>266.9666666666666</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
       </c>
-      <c r="J403" t="n">
-        <v>266</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L403" t="inlineStr"/>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -14669,20 +14641,14 @@
         <v>266.8833333333333</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
       </c>
-      <c r="J404" t="n">
-        <v>267</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L404" t="inlineStr"/>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -14710,20 +14676,14 @@
         <v>266.8333333333333</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
       </c>
-      <c r="J405" t="n">
-        <v>268</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L405" t="inlineStr"/>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -14751,20 +14711,14 @@
         <v>266.8333333333333</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
       </c>
-      <c r="J406" t="n">
-        <v>269</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L406" t="inlineStr"/>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -14792,20 +14746,14 @@
         <v>266.8666666666667</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
       </c>
-      <c r="J407" t="n">
-        <v>270</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L407" t="inlineStr"/>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -14833,20 +14781,14 @@
         <v>266.8833333333333</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
       </c>
-      <c r="J408" t="n">
-        <v>268</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L408" t="inlineStr"/>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -14874,20 +14816,14 @@
         <v>266.8833333333333</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
       </c>
-      <c r="J409" t="n">
-        <v>269</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L409" t="inlineStr"/>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -14915,20 +14851,14 @@
         <v>266.8833333333333</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
       </c>
-      <c r="J410" t="n">
-        <v>267</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L410" t="inlineStr"/>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -14956,20 +14886,14 @@
         <v>267.1333333333333</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
       </c>
-      <c r="J411" t="n">
-        <v>268</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L411" t="inlineStr"/>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -14997,20 +14921,14 @@
         <v>267.1333333333333</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
       </c>
-      <c r="J412" t="n">
-        <v>272</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L412" t="inlineStr"/>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15038,20 +14956,14 @@
         <v>267.2833333333334</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
       </c>
-      <c r="J413" t="n">
-        <v>268</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L413" t="inlineStr"/>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15079,20 +14991,14 @@
         <v>267.2833333333334</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
       </c>
-      <c r="J414" t="n">
-        <v>273</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L414" t="inlineStr"/>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15120,20 +15026,14 @@
         <v>267.2666666666667</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
       </c>
-      <c r="J415" t="n">
-        <v>271</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L415" t="inlineStr"/>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15161,20 +15061,14 @@
         <v>267.3333333333333</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
       </c>
-      <c r="J416" t="n">
-        <v>271</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L416" t="inlineStr"/>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15202,20 +15096,14 @@
         <v>267.35</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
       </c>
-      <c r="J417" t="n">
-        <v>268</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L417" t="inlineStr"/>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15243,20 +15131,14 @@
         <v>267.35</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
       </c>
-      <c r="J418" t="n">
-        <v>267</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L418" t="inlineStr"/>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15284,20 +15166,14 @@
         <v>267.4</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
       </c>
-      <c r="J419" t="n">
-        <v>268</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L419" t="inlineStr"/>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15325,20 +15201,14 @@
         <v>267.45</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
       </c>
-      <c r="J420" t="n">
-        <v>269</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L420" t="inlineStr"/>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15366,20 +15236,14 @@
         <v>267.5</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
       </c>
-      <c r="J421" t="n">
-        <v>268</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L421" t="inlineStr"/>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15407,20 +15271,14 @@
         <v>267.55</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
       </c>
-      <c r="J422" t="n">
-        <v>270</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L422" t="inlineStr"/>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -15448,20 +15306,14 @@
         <v>267.6166666666667</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
       </c>
-      <c r="J423" t="n">
-        <v>270</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L423" t="inlineStr"/>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -15489,20 +15341,14 @@
         <v>267.7333333333333</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
       </c>
-      <c r="J424" t="n">
-        <v>270</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L424" t="inlineStr"/>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -15530,20 +15376,14 @@
         <v>267.8666666666667</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
       </c>
-      <c r="J425" t="n">
-        <v>272</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L425" t="inlineStr"/>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -15571,20 +15411,14 @@
         <v>267.9833333333333</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
       </c>
-      <c r="J426" t="n">
-        <v>274</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L426" t="inlineStr"/>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -15612,20 +15446,14 @@
         <v>268.2166666666666</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
       </c>
-      <c r="J427" t="n">
-        <v>275</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L427" t="inlineStr"/>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -15653,20 +15481,14 @@
         <v>268.3166666666667</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
       </c>
-      <c r="J428" t="n">
-        <v>272</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L428" t="inlineStr"/>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -15694,20 +15516,14 @@
         <v>268.45</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
       </c>
-      <c r="J429" t="n">
-        <v>272</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L429" t="inlineStr"/>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -15735,20 +15551,14 @@
         <v>268.5833333333333</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
       </c>
-      <c r="J430" t="n">
-        <v>272</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L430" t="inlineStr"/>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -15776,20 +15586,14 @@
         <v>268.8833333333333</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
       </c>
-      <c r="J431" t="n">
-        <v>280</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L431" t="inlineStr"/>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -15817,20 +15621,14 @@
         <v>269</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
       </c>
-      <c r="J432" t="n">
-        <v>276</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L432" t="inlineStr"/>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -15858,20 +15656,14 @@
         <v>269.1166666666667</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
       </c>
-      <c r="J433" t="n">
-        <v>282</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L433" t="inlineStr"/>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -15899,20 +15691,14 @@
         <v>269.2</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
       </c>
-      <c r="J434" t="n">
-        <v>275</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L434" t="inlineStr"/>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -15940,20 +15726,14 @@
         <v>269.4166666666667</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
       </c>
-      <c r="J435" t="n">
-        <v>273</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L435" t="inlineStr"/>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -15981,20 +15761,14 @@
         <v>269.5333333333334</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
       </c>
-      <c r="J436" t="n">
-        <v>269</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L436" t="inlineStr"/>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -16022,20 +15796,14 @@
         <v>269.6666666666667</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
       </c>
-      <c r="J437" t="n">
-        <v>273</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L437" t="inlineStr"/>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -16063,20 +15831,14 @@
         <v>269.7833333333334</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
       </c>
-      <c r="J438" t="n">
-        <v>274</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L438" t="inlineStr"/>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -16104,20 +15866,14 @@
         <v>269.9</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
       </c>
-      <c r="J439" t="n">
-        <v>274</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L439" t="inlineStr"/>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -16145,20 +15901,14 @@
         <v>270.0166666666667</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
       </c>
-      <c r="J440" t="n">
-        <v>274</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L440" t="inlineStr"/>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -16186,20 +15936,14 @@
         <v>270.1333333333333</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
       </c>
-      <c r="J441" t="n">
-        <v>274</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L441" t="inlineStr"/>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -16227,20 +15971,14 @@
         <v>270.2166666666666</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
       </c>
-      <c r="J442" t="n">
-        <v>274</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L442" t="inlineStr"/>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -16268,20 +16006,14 @@
         <v>270.2</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
       </c>
-      <c r="J443" t="n">
-        <v>270</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L443" t="inlineStr"/>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -16309,20 +16041,14 @@
         <v>270.25</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
       </c>
-      <c r="J444" t="n">
-        <v>272</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L444" t="inlineStr"/>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -16350,20 +16076,14 @@
         <v>270.4333333333333</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
       </c>
-      <c r="J445" t="n">
-        <v>276</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L445" t="inlineStr"/>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -16391,20 +16111,14 @@
         <v>270.6666666666667</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
       </c>
-      <c r="J446" t="n">
-        <v>276</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L446" t="inlineStr"/>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -16432,20 +16146,14 @@
         <v>270.7833333333334</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
       </c>
-      <c r="J447" t="n">
-        <v>270</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L447" t="inlineStr"/>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -16473,20 +16181,14 @@
         <v>270.9</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
       </c>
-      <c r="J448" t="n">
-        <v>271</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L448" t="inlineStr"/>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -16514,20 +16216,14 @@
         <v>270.95</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
       </c>
-      <c r="J449" t="n">
-        <v>269</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L449" t="inlineStr"/>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -16555,20 +16251,14 @@
         <v>270.9666666666666</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
       </c>
-      <c r="J450" t="n">
-        <v>271</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L450" t="inlineStr"/>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -16596,20 +16286,14 @@
         <v>270.9833333333333</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
       </c>
-      <c r="J451" t="n">
-        <v>269</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L451" t="inlineStr"/>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -16637,20 +16321,14 @@
         <v>271.0166666666667</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
       </c>
-      <c r="J452" t="n">
-        <v>270</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L452" t="inlineStr"/>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -16678,20 +16356,14 @@
         <v>271.05</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
       </c>
-      <c r="J453" t="n">
-        <v>269</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L453" t="inlineStr"/>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -16719,20 +16391,14 @@
         <v>271.2333333333333</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
       </c>
-      <c r="J454" t="n">
-        <v>275</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L454" t="inlineStr"/>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -16760,20 +16426,14 @@
         <v>271.25</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
       </c>
-      <c r="J455" t="n">
-        <v>272</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L455" t="inlineStr"/>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -16801,20 +16461,14 @@
         <v>271.25</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
       </c>
-      <c r="J456" t="n">
-        <v>271</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L456" t="inlineStr"/>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -16842,20 +16496,14 @@
         <v>271.2833333333334</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
       </c>
-      <c r="J457" t="n">
-        <v>268</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L457" t="inlineStr"/>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -16883,20 +16531,14 @@
         <v>271.4166666666667</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
       </c>
-      <c r="J458" t="n">
-        <v>269</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L458" t="inlineStr"/>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -16924,20 +16566,14 @@
         <v>271.5333333333334</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
       </c>
-      <c r="J459" t="n">
-        <v>272</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L459" t="inlineStr"/>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -16965,20 +16601,14 @@
         <v>271.6166666666667</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
       </c>
-      <c r="J460" t="n">
-        <v>273</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L460" t="inlineStr"/>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -17006,20 +16636,14 @@
         <v>271.75</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
       </c>
-      <c r="J461" t="n">
-        <v>273</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L461" t="inlineStr"/>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -17047,20 +16671,14 @@
         <v>271.8666666666667</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
       </c>
-      <c r="J462" t="n">
-        <v>273</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L462" t="inlineStr"/>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -17088,20 +16706,14 @@
         <v>271.8666666666667</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
       </c>
-      <c r="J463" t="n">
-        <v>270</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L463" t="inlineStr"/>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -17129,20 +16741,14 @@
         <v>271.85</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
       </c>
-      <c r="J464" t="n">
-        <v>266</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L464" t="inlineStr"/>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -17170,20 +16776,14 @@
         <v>271.8166666666667</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
       </c>
-      <c r="J465" t="n">
-        <v>266</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L465" t="inlineStr"/>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -17211,20 +16811,14 @@
         <v>271.7666666666667</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
       </c>
-      <c r="J466" t="n">
-        <v>266</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L466" t="inlineStr"/>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -17252,20 +16846,14 @@
         <v>271.6666666666667</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
       </c>
-      <c r="J467" t="n">
-        <v>265</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L467" t="inlineStr"/>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -17293,20 +16881,14 @@
         <v>271.7333333333333</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
       </c>
-      <c r="J468" t="n">
-        <v>273</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L468" t="inlineStr"/>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -17334,20 +16916,14 @@
         <v>271.7</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
       </c>
-      <c r="J469" t="n">
-        <v>266</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L469" t="inlineStr"/>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -17375,20 +16951,14 @@
         <v>271.7</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
       </c>
-      <c r="J470" t="n">
-        <v>265</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L470" t="inlineStr"/>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -17416,20 +16986,14 @@
         <v>271.45</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
       </c>
-      <c r="J471" t="n">
-        <v>268</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L471" t="inlineStr"/>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -17457,20 +17021,14 @@
         <v>271.45</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
       </c>
-      <c r="J472" t="n">
-        <v>268</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L472" t="inlineStr"/>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -17498,20 +17056,14 @@
         <v>271.3166666666667</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
       </c>
-      <c r="J473" t="n">
-        <v>268</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L473" t="inlineStr"/>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -17539,20 +17091,14 @@
         <v>271.3666666666667</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
       </c>
-      <c r="J474" t="n">
-        <v>270</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L474" t="inlineStr"/>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -17580,20 +17126,14 @@
         <v>271.3833333333333</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
       </c>
-      <c r="J475" t="n">
-        <v>270</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L475" t="inlineStr"/>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -17621,20 +17161,14 @@
         <v>271.3166666666667</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
       </c>
-      <c r="J476" t="n">
-        <v>267</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L476" t="inlineStr"/>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -17662,20 +17196,14 @@
         <v>271.2833333333334</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
       </c>
-      <c r="J477" t="n">
-        <v>266</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L477" t="inlineStr"/>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -17703,20 +17231,14 @@
         <v>271.2666666666667</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
       </c>
-      <c r="J478" t="n">
-        <v>266</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L478" t="inlineStr"/>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -17744,20 +17266,14 @@
         <v>271.2</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
       </c>
-      <c r="J479" t="n">
-        <v>266</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L479" t="inlineStr"/>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -17785,20 +17301,14 @@
         <v>271.1666666666667</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
       </c>
-      <c r="J480" t="n">
-        <v>268</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L480" t="inlineStr"/>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -17826,20 +17336,14 @@
         <v>271.1666666666667</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
       </c>
-      <c r="J481" t="n">
-        <v>268</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L481" t="inlineStr"/>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -17867,20 +17371,14 @@
         <v>271.1666666666667</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
       </c>
-      <c r="J482" t="n">
-        <v>267</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L482" t="inlineStr"/>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -17908,20 +17406,14 @@
         <v>271.1666666666667</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
       </c>
-      <c r="J483" t="n">
-        <v>270</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L483" t="inlineStr"/>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -17949,20 +17441,14 @@
         <v>271.15</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
       </c>
-      <c r="J484" t="n">
-        <v>272</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L484" t="inlineStr"/>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -17990,20 +17476,14 @@
         <v>271.1166666666667</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
       </c>
-      <c r="J485" t="n">
-        <v>272</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L485" t="inlineStr"/>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -18031,20 +17511,14 @@
         <v>271.0166666666667</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
       </c>
-      <c r="J486" t="n">
-        <v>268</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L486" t="inlineStr"/>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -18072,20 +17546,14 @@
         <v>270.8</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
       </c>
-      <c r="J487" t="n">
-        <v>268</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L487" t="inlineStr"/>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -18113,20 +17581,14 @@
         <v>270.6833333333333</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
       </c>
-      <c r="J488" t="n">
-        <v>268</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L488" t="inlineStr"/>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -18154,20 +17616,14 @@
         <v>270.5666666666667</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
       </c>
-      <c r="J489" t="n">
-        <v>270</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L489" t="inlineStr"/>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -18195,20 +17651,14 @@
         <v>270.5166666666667</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
       </c>
-      <c r="J490" t="n">
-        <v>271</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L490" t="inlineStr"/>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -18236,20 +17686,14 @@
         <v>270.3</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
       </c>
-      <c r="J491" t="n">
-        <v>271</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L491" t="inlineStr"/>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -18277,20 +17721,14 @@
         <v>270.2833333333334</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
       </c>
-      <c r="J492" t="n">
-        <v>271</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L492" t="inlineStr"/>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -18318,20 +17756,14 @@
         <v>270.2166666666666</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
       </c>
-      <c r="J493" t="n">
-        <v>275</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L493" t="inlineStr"/>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -18359,20 +17791,14 @@
         <v>270.2</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
       </c>
-      <c r="J494" t="n">
-        <v>273</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L494" t="inlineStr"/>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -18400,20 +17826,14 @@
         <v>270.0666666666667</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
       </c>
-      <c r="J495" t="n">
-        <v>272</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L495" t="inlineStr"/>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -18441,20 +17861,14 @@
         <v>270.05</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
       </c>
-      <c r="J496" t="n">
-        <v>269</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L496" t="inlineStr"/>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -18482,20 +17896,14 @@
         <v>270.1666666666667</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
       </c>
-      <c r="J497" t="n">
-        <v>272</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L497" t="inlineStr"/>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -18523,20 +17931,14 @@
         <v>270.1833333333333</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
       </c>
-      <c r="J498" t="n">
-        <v>270</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L498" t="inlineStr"/>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -18564,20 +17966,14 @@
         <v>270.1833333333333</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
       </c>
-      <c r="J499" t="n">
-        <v>274</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L499" t="inlineStr"/>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -18605,20 +18001,14 @@
         <v>270.2</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
       </c>
-      <c r="J500" t="n">
-        <v>275</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L500" t="inlineStr"/>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -18646,20 +18036,14 @@
         <v>270.2166666666666</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
       </c>
-      <c r="J501" t="n">
-        <v>274</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L501" t="inlineStr"/>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -18687,20 +18071,14 @@
         <v>270.2</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
       </c>
-      <c r="J502" t="n">
-        <v>274</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L502" t="inlineStr"/>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -18728,20 +18106,14 @@
         <v>270.2833333333334</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
       </c>
-      <c r="J503" t="n">
-        <v>274</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L503" t="inlineStr"/>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -18769,20 +18141,14 @@
         <v>270.3</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
       </c>
-      <c r="J504" t="n">
-        <v>273</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L504" t="inlineStr"/>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -18810,20 +18176,14 @@
         <v>270.25</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
       </c>
-      <c r="J505" t="n">
-        <v>273</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L505" t="inlineStr"/>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -18851,20 +18211,14 @@
         <v>270.15</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
       </c>
-      <c r="J506" t="n">
-        <v>273</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L506" t="inlineStr"/>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -18892,20 +18246,14 @@
         <v>270.1</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
       </c>
-      <c r="J507" t="n">
-        <v>270</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L507" t="inlineStr"/>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -18933,20 +18281,14 @@
         <v>270.0833333333333</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
       </c>
-      <c r="J508" t="n">
-        <v>270</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L508" t="inlineStr"/>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -18974,20 +18316,14 @@
         <v>270.2166666666666</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
       </c>
-      <c r="J509" t="n">
-        <v>277</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L509" t="inlineStr"/>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -19015,20 +18351,14 @@
         <v>270.3666666666667</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
       </c>
-      <c r="J510" t="n">
-        <v>271</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L510" t="inlineStr"/>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -19056,20 +18386,14 @@
         <v>270.4666666666666</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
       </c>
-      <c r="J511" t="n">
-        <v>275</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L511" t="inlineStr"/>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -19097,20 +18421,14 @@
         <v>270.5333333333334</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
       </c>
-      <c r="J512" t="n">
-        <v>273</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L512" t="inlineStr"/>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -19138,20 +18456,14 @@
         <v>270.6166666666667</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
       </c>
-      <c r="J513" t="n">
-        <v>274</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L513" t="inlineStr"/>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -19179,20 +18491,14 @@
         <v>270.6166666666667</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
       </c>
-      <c r="J514" t="n">
-        <v>273</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L514" t="inlineStr"/>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -19220,20 +18526,14 @@
         <v>270.6666666666667</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
       </c>
-      <c r="J515" t="n">
-        <v>270</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L515" t="inlineStr"/>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -19261,20 +18561,14 @@
         <v>270.7666666666667</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
       </c>
-      <c r="J516" t="n">
-        <v>274</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L516" t="inlineStr"/>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -19302,20 +18596,14 @@
         <v>270.8833333333333</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
       </c>
-      <c r="J517" t="n">
-        <v>275</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L517" t="inlineStr"/>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -19343,20 +18631,14 @@
         <v>270.9166666666667</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
       </c>
-      <c r="J518" t="n">
-        <v>274</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L518" t="inlineStr"/>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -19384,20 +18666,14 @@
         <v>270.9333333333333</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
       </c>
-      <c r="J519" t="n">
-        <v>270</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L519" t="inlineStr"/>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -19425,20 +18701,14 @@
         <v>271.0166666666667</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
       </c>
-      <c r="J520" t="n">
-        <v>274</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L520" t="inlineStr"/>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -19466,20 +18736,14 @@
         <v>271.0333333333334</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
       </c>
-      <c r="J521" t="n">
-        <v>275</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L521" t="inlineStr"/>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -19507,20 +18771,14 @@
         <v>271.05</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
       </c>
-      <c r="J522" t="n">
-        <v>274</v>
-      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L522" t="inlineStr"/>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -19548,20 +18806,14 @@
         <v>271.0833333333333</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
       </c>
-      <c r="J523" t="n">
-        <v>274</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L523" t="inlineStr"/>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -19589,20 +18841,14 @@
         <v>271.2666666666667</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
       </c>
-      <c r="J524" t="n">
-        <v>277</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L524" t="inlineStr"/>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -19630,20 +18876,14 @@
         <v>271.35</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
       </c>
-      <c r="J525" t="n">
-        <v>273</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L525" t="inlineStr"/>
       <c r="M525" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-11 BackTest TRUE.xlsx
+++ b/BackTest/2019-10-11 BackTest TRUE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-27642.24102816901</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-30445.42882816901</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-30342.53652816901</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-31120.25272816901</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-29841.13942816901</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-30095.25472816901</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-30095.25472816901</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-30095.25472816901</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-30079.06722816901</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-30808.10662816901</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-30808.10662816901</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-30808.10662816901</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-30342.16382816901</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-30343.16382816901</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-30314.96842816901</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-30314.96842816901</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-30318.18002816901</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-30318.18002816901</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-29621.34442816901</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-28321.34442816901</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-28321.34442816901</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-28321.34442816901</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-28321.34442816901</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-28939.00542816901</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-34100.69022816901</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-33235.69022816901</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-42061.66482816901</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-45514.56222816901</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-45374.06142816901</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-50026.694628169</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-50025.594828169</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-57296.201628169</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-57296.201628169</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-57296.201628169</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-57296.201628169</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-57297.201628169</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-57298.201628169</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-58888.426428169</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-58888.426428169</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-59073.426328169</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-59073.426328169</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-59073.426328169</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-59073.426328169</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-59073.426328169</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-59073.426328169</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-53153.926628169</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-53153.926628169</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-53079.210128169</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-59720.523228169</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-60988.66272816899</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-60986.41592816899</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-61031.84772816899</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-61033.02952816899</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-62526.72542816899</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-64808.74172816899</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-92741.314628169</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-92824.44592816899</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-83849.799928169</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-83849.799928169</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-83848.457428169</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-84093.177728169</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-84090.511128169</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-84389.11602816901</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-85624.83572816901</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-85630.50262816901</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-85441.79012816901</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-85775.48312816901</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-86467.36052816901</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-86467.36052816901</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-86467.36052816901</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-86467.36052816901</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-86397.64192816902</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-86393.64192816902</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-86393.64192816902</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-86397.12872816902</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-86399.31052816902</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-86424.59872816902</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-86422.59872816902</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-83088.8310722951</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-83088.8310722951</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-74874.7453722951</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-74844.7453722951</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-74844.7453722951</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-72648.88177229511</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-72648.88177229511</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-66160.81410223861</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-66160.81410223861</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-66302.0900022386</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-64436.3015722951</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-64436.3015722951</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-67715.52337229511</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-68011.44437229511</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-78550.70884235161</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-78616.38404235161</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-78657.38404235161</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-79240.5864423516</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-79232.00994235161</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-79232.00994235161</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-78805.84094235161</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-79978.40684235161</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-79893.54574235162</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-78540.93534235161</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-77720.58144235161</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-77720.58144235161</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-76491.96524235161</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-76439.63714235161</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-91759.47394235161</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-91815.66824235162</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-92404.80424235162</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-92404.80424235162</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-92635.65404235161</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-93637.51254235161</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-93637.51254235161</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-94249.33304235162</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-94247.09164235162</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-94247.09164235162</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-94256.48744235162</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-94256.48744235162</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-96809.41903185598</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-97796.70473185598</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-97796.70473185598</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-97796.70473185598</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-119409.859031856</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-120310.265231856</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-130001.375331856</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-126375.441231856</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-126375.441231856</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-124985.746631856</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-121474.0267392089</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-121474.0267392089</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-123466.7404392089</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-123466.7404392089</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-122457.8637392089</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-122457.8637392089</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-122948.9799392089</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-128943.0926392089</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-124482.7901392089</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-128049.8920392089</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-128707.4650392089</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-128928.1753392089</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-124097.8687565341</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-124097.8687565341</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-124097.8687565341</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-126581.7878565341</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-126578.5345565341</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-133846.6865565341</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-139680.4008565341</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-137344.4008565341</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-138598.5981878774</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-138598.5981878774</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-138369.5981878774</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-134269.5981878774</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-134246.6973878774</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-134540.3993878774</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-133274.7143878774</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-131714.7143878774</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-131985.4383878774</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-123721.1660878774</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-130809.6003878774</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-130809.6003878774</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-131005.4500878774</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-130725.4500878774</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-129672.3080878774</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-130020.1500878774</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-130020.1500878774</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-130020.1500878774</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-127005.7288878774</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-127306.7288878774</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-126773.7113878774</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-125019.0106878774</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-125029.0106878774</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-130281.6825878774</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-131128.1360878774</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-131128.1360878774</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-129986.1360878774</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-129986.1360878774</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-129986.1360878774</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-128620.1360878774</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-128912.1087878774</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-128172.1087878774</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-128181.1069878774</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-140149.227944668</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-150352.643944668</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-150352.643944668</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-150809.310444668</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-171807.064844668</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-156767.192744668</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-157820.981944668</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-158324.829444668</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-173325.988444668</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-172902.988444668</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-173275.718944668</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-173254.718944668</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-172548.105644668</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-173033.105644668</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-173381.665644668</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-172993.35613868</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-178314.03993868</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-177784.01633868</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-177047.01633868</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-176440.01633868</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-176440.01633868</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-176440.01633868</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-186441.01633868</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-186453.01633868</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-186450.01633868</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-188003.64823868</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-184344.07103868</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-189417.06743868</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-191738.56963868</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-191738.56963868</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-206159.31853868</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-200638.22213868</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-200637.22213868</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-199709.22213868</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-199709.22213868</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-199709.22213868</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-199707.22213868</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-199527.22213868</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-199528.22213868</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-199719.25633868</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-197091.49523868</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-197091.49523868</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-197436.60733868</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-194527.60733868</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-194527.60733868</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-196360.08173868</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-196360.08173868</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-196360.08173868</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-196360.08173868</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-204056.48663868</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-204054.48663868</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-207447.53773868</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-208341.89683868</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-208341.89683868</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-218256.39113868</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-218155.39113868</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-268352.83063868</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-277652.28543868</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-277651.28543868</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-277804.60123868</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-278243.60843868</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-278243.60843868</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-284248.24123868</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-273871.78603868</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-270736.40953868</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-270916.40953868</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-270991.35923868</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-274080.69183868</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-274079.69183868</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -14311,11 +14311,17 @@
         <v>-3385833.536283046</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>267</v>
+      </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14344,11 +14350,17 @@
         <v>-3385833.536283046</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>266</v>
+      </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14381,7 +14393,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14414,7 +14430,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14447,7 +14467,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14476,11 +14500,17 @@
         <v>-3384390.938783046</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>266</v>
+      </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14509,11 +14539,17 @@
         <v>-3384390.938783046</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>269</v>
+      </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14542,11 +14578,17 @@
         <v>-3384514.125883046</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>269</v>
+      </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14575,11 +14617,17 @@
         <v>-3384514.125883046</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>266</v>
+      </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14608,11 +14656,17 @@
         <v>-3382526.742483046</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>266</v>
+      </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14641,11 +14695,17 @@
         <v>-4145727.742483046</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>269</v>
+      </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14674,11 +14734,17 @@
         <v>-4145727.742483046</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>265</v>
+      </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14711,7 +14777,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14744,7 +14814,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14777,7 +14851,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14810,7 +14888,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14839,11 +14921,17 @@
         <v>-3208870.667183046</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>267</v>
+      </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14872,11 +14960,17 @@
         <v>-3208870.667183046</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>267</v>
+      </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14905,11 +14999,17 @@
         <v>-3208870.667183046</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>267</v>
+      </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14938,11 +15038,17 @@
         <v>-2888011.359483046</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>267</v>
+      </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14971,11 +15077,17 @@
         <v>-2888011.359483046</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>269</v>
+      </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15004,11 +15116,17 @@
         <v>-2888011.359483046</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>269</v>
+      </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15037,11 +15155,17 @@
         <v>-2890005.777183046</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>269</v>
+      </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15070,11 +15194,17 @@
         <v>-2909080.071283046</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>265</v>
+      </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15103,11 +15233,17 @@
         <v>-2892444.878483046</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>262</v>
+      </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15136,11 +15272,17 @@
         <v>-2896155.671283046</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>266</v>
+      </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15173,7 +15315,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15206,7 +15352,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15239,7 +15389,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15272,7 +15426,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15305,7 +15463,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15338,7 +15500,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15367,11 +15533,17 @@
         <v>-2884528.590283046</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>264</v>
+      </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15400,11 +15572,17 @@
         <v>-2875447.306083046</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>267</v>
+      </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15437,7 +15615,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15470,7 +15652,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15503,7 +15689,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15536,7 +15726,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15569,7 +15763,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15602,7 +15800,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15635,7 +15837,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15668,7 +15874,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15701,7 +15911,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15734,7 +15948,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15767,7 +15985,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15800,7 +16022,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15833,7 +16059,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15866,7 +16096,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15899,7 +16133,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15932,7 +16170,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -15965,7 +16207,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -15998,7 +16244,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16031,7 +16281,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16064,7 +16318,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16097,7 +16355,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16130,7 +16392,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16163,7 +16429,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16196,7 +16466,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16225,7 +16499,7 @@
         <v>-2845269.548083045</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I480" t="n">
         <v>270</v>
@@ -16233,7 +16507,7 @@
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L480" t="n">
@@ -16264,11 +16538,9 @@
         <v>-2845269.548083045</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
-      </c>
-      <c r="I481" t="n">
-        <v>270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
@@ -16303,11 +16575,9 @@
         <v>-2845269.548083045</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
-      </c>
-      <c r="I482" t="n">
-        <v>270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
@@ -16379,11 +16649,9 @@
         <v>-2841733.856983045</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
-      </c>
-      <c r="I484" t="n">
-        <v>273</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
@@ -16566,9 +16834,11 @@
         <v>-2847114.761338519</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>277</v>
+      </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
@@ -16603,9 +16873,11 @@
         <v>-2846929.761338519</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>274</v>
+      </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
@@ -16640,9 +16912,11 @@
         <v>-2846977.595538519</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>284</v>
+      </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
@@ -16677,9 +16951,11 @@
         <v>-2847152.455038519</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>276</v>
+      </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
@@ -16714,9 +16990,11 @@
         <v>-2847283.667638519</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>272</v>
+      </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
@@ -16751,9 +17029,11 @@
         <v>-2833643.751038519</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>270</v>
+      </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
@@ -16788,9 +17068,11 @@
         <v>-2838572.746038519</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>278</v>
+      </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
@@ -16825,7 +17107,7 @@
         <v>-2835076.846338519</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I496" t="n">
         <v>273</v>
@@ -16864,7 +17146,7 @@
         <v>-2835076.846338519</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I497" t="n">
         <v>274</v>
@@ -16903,7 +17185,7 @@
         <v>-2835076.846338519</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I498" t="n">
         <v>274</v>
@@ -16942,7 +17224,7 @@
         <v>-2835076.846338519</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I499" t="n">
         <v>274</v>
@@ -16981,7 +17263,7 @@
         <v>-2835076.846338519</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I500" t="n">
         <v>274</v>
@@ -17020,7 +17302,7 @@
         <v>-2835076.846338519</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I501" t="n">
         <v>274</v>
@@ -17059,7 +17341,7 @@
         <v>-2843910.995738519</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I502" t="n">
         <v>274</v>
@@ -17098,7 +17380,7 @@
         <v>-2843902.84323852</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I503" t="n">
         <v>268</v>
@@ -17137,7 +17419,7 @@
         <v>-2843901.84323852</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I504" t="n">
         <v>272</v>
@@ -17176,7 +17458,7 @@
         <v>-2843901.84323852</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I505" t="n">
         <v>276</v>
@@ -17215,7 +17497,7 @@
         <v>-2857221.96733852</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I506" t="n">
         <v>276</v>
@@ -17254,7 +17536,7 @@
         <v>-2857285.20253852</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I507" t="n">
         <v>273</v>
@@ -17293,7 +17575,7 @@
         <v>-2857359.20253852</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I508" t="n">
         <v>271</v>
@@ -17332,7 +17614,7 @@
         <v>-2857359.20253852</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I509" t="n">
         <v>269</v>
@@ -17371,7 +17653,7 @@
         <v>-2857359.20253852</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I510" t="n">
         <v>269</v>
@@ -17410,7 +17692,7 @@
         <v>-2857310.59093852</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I511" t="n">
         <v>269</v>
@@ -17449,7 +17731,7 @@
         <v>-2857363.03413852</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I512" t="n">
         <v>270</v>
@@ -17488,7 +17770,7 @@
         <v>-2857361.93433852</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I513" t="n">
         <v>269</v>
@@ -17527,7 +17809,7 @@
         <v>-2857786.64033852</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I514" t="n">
         <v>275</v>
@@ -17566,7 +17848,7 @@
         <v>-2857786.64033852</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I515" t="n">
         <v>268</v>
@@ -17605,9 +17887,11 @@
         <v>-2857786.64033852</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>268</v>
+      </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
@@ -17642,7 +17926,7 @@
         <v>-2857563.17653852</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I517" t="n">
         <v>268</v>
@@ -17681,7 +17965,7 @@
         <v>-2847403.69153852</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I518" t="n">
         <v>272</v>
@@ -17720,7 +18004,7 @@
         <v>-2847903.69173852</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I519" t="n">
         <v>273</v>
@@ -17759,9 +18043,11 @@
         <v>-2847902.69173852</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>270</v>
+      </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
@@ -17796,9 +18082,11 @@
         <v>-2847902.69173852</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>273</v>
+      </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
@@ -17833,9 +18121,11 @@
         <v>-2853075.32233852</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>273</v>
+      </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
@@ -17870,7 +18160,7 @@
         <v>-2870210.261338519</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I523" t="n">
         <v>267</v>
@@ -17909,7 +18199,7 @@
         <v>-2870210.261338519</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I524" t="n">
         <v>266</v>
@@ -17948,7 +18238,7 @@
         <v>-2870210.261338519</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I525" t="n">
         <v>266</v>
@@ -17987,7 +18277,7 @@
         <v>-2871520.30403852</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I526" t="n">
         <v>266</v>
@@ -18026,7 +18316,7 @@
         <v>-2871519.30403852</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I527" t="n">
         <v>264</v>
@@ -18065,7 +18355,7 @@
         <v>-2871836.24693852</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I528" t="n">
         <v>273</v>
@@ -18104,7 +18394,7 @@
         <v>-2871559.28483852</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I529" t="n">
         <v>266</v>
@@ -18143,7 +18433,7 @@
         <v>-2871559.28483852</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I530" t="n">
         <v>268</v>
@@ -18182,7 +18472,7 @@
         <v>-2871559.28483852</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I531" t="n">
         <v>268</v>
@@ -18221,7 +18511,7 @@
         <v>-2867730.415465927</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I532" t="n">
         <v>268</v>
@@ -18260,7 +18550,7 @@
         <v>-2867730.415465927</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I533" t="n">
         <v>270</v>
@@ -18299,7 +18589,7 @@
         <v>-2867730.415465927</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I534" t="n">
         <v>270</v>
@@ -18338,7 +18628,7 @@
         <v>-2867779.180665927</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I535" t="n">
         <v>270</v>
@@ -18377,7 +18667,7 @@
         <v>-2886805.407565927</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I536" t="n">
         <v>267</v>
@@ -18416,7 +18706,7 @@
         <v>-2886805.407565927</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I537" t="n">
         <v>266</v>
@@ -18455,7 +18745,7 @@
         <v>-2886805.407565927</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I538" t="n">
         <v>266</v>
@@ -18494,7 +18784,7 @@
         <v>-2886722.390665927</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I539" t="n">
         <v>266</v>
@@ -18533,7 +18823,7 @@
         <v>-2870722.390665927</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I540" t="n">
         <v>268</v>
@@ -18572,7 +18862,7 @@
         <v>-2870722.390665927</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I541" t="n">
         <v>270</v>
@@ -18611,7 +18901,7 @@
         <v>-2870722.390665927</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I542" t="n">
         <v>270</v>
@@ -18650,7 +18940,7 @@
         <v>-2870721.390665927</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I543" t="n">
         <v>270</v>
@@ -18689,7 +18979,7 @@
         <v>-2870721.390665927</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I544" t="n">
         <v>272</v>
@@ -18728,7 +19018,7 @@
         <v>-2872052.138665927</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I545" t="n">
         <v>272</v>
@@ -18767,7 +19057,7 @@
         <v>-2872052.138665927</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I546" t="n">
         <v>267</v>
@@ -18806,7 +19096,7 @@
         <v>-2871935.818065926</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I547" t="n">
         <v>267</v>
@@ -18845,7 +19135,7 @@
         <v>-2871931.187165926</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I548" t="n">
         <v>268</v>
@@ -18884,7 +19174,7 @@
         <v>-2871929.158665926</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I549" t="n">
         <v>270</v>
@@ -18923,7 +19213,7 @@
         <v>-2871929.158665926</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I550" t="n">
         <v>271</v>
@@ -18962,7 +19252,7 @@
         <v>-2867060.158665926</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I551" t="n">
         <v>271</v>
@@ -19001,7 +19291,7 @@
         <v>-2871638.158665926</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I552" t="n">
         <v>275</v>
@@ -19040,7 +19330,7 @@
         <v>-2870653.158665926</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I553" t="n">
         <v>268</v>
@@ -19079,7 +19369,7 @@
         <v>-2869918.579365926</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I554" t="n">
         <v>269</v>
@@ -19118,7 +19408,7 @@
         <v>-2869091.812665926</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I555" t="n">
         <v>270</v>
@@ -19157,7 +19447,7 @@
         <v>-2863832.054686923</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I556" t="n">
         <v>272</v>
@@ -19196,7 +19486,7 @@
         <v>-2863834.054686923</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I557" t="n">
         <v>281</v>
@@ -19235,7 +19525,7 @@
         <v>-2863915.229786923</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I558" t="n">
         <v>275</v>
@@ -19274,7 +19564,7 @@
         <v>-2863913.080586923</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I559" t="n">
         <v>274</v>
@@ -19313,7 +19603,7 @@
         <v>-2863913.080586923</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I560" t="n">
         <v>275</v>
@@ -19352,7 +19642,7 @@
         <v>-2863934.968986923</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I561" t="n">
         <v>275</v>
@@ -19391,7 +19681,7 @@
         <v>-2863934.968986923</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I562" t="n">
         <v>273</v>
@@ -19430,9 +19720,11 @@
         <v>-2863934.968986923</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>273</v>
+      </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
@@ -19467,7 +19759,7 @@
         <v>-2863934.968986923</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I564" t="n">
         <v>273</v>
@@ -19506,7 +19798,7 @@
         <v>-2864002.493986923</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I565" t="n">
         <v>273</v>
@@ -19545,7 +19837,7 @@
         <v>-2864002.493986923</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I566" t="n">
         <v>270</v>
@@ -19584,7 +19876,7 @@
         <v>-2864002.493986923</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I567" t="n">
         <v>270</v>
@@ -19623,7 +19915,7 @@
         <v>-2864001.484186923</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I568" t="n">
         <v>270</v>
@@ -19662,7 +19954,7 @@
         <v>-2863905.728086923</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I569" t="n">
         <v>277</v>
@@ -19701,7 +19993,7 @@
         <v>-2863910.728086923</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I570" t="n">
         <v>278</v>
@@ -19740,7 +20032,7 @@
         <v>-2865590.862586923</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I571" t="n">
         <v>275</v>
@@ -19779,7 +20071,7 @@
         <v>-2865590.862586923</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I572" t="n">
         <v>274</v>
@@ -19818,7 +20110,7 @@
         <v>-2865399.862586923</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I573" t="n">
         <v>274</v>
@@ -19857,7 +20149,7 @@
         <v>-2866829.658786923</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I574" t="n">
         <v>275</v>
@@ -19896,7 +20188,7 @@
         <v>-2866799.658786923</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I575" t="n">
         <v>271</v>
@@ -19935,7 +20227,7 @@
         <v>-2866793.658786923</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I576" t="n">
         <v>274</v>
@@ -19974,7 +20266,7 @@
         <v>-2866798.865486923</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I577" t="n">
         <v>275</v>
@@ -20013,9 +20305,11 @@
         <v>-2866798.865486923</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>274</v>
+      </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
@@ -20050,9 +20344,11 @@
         <v>-2866793.739686923</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>274</v>
+      </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
@@ -20087,9 +20383,11 @@
         <v>-2866831.801186923</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>275</v>
+      </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
@@ -20124,9 +20422,11 @@
         <v>-2866831.801186923</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>274</v>
+      </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
@@ -20161,7 +20461,7 @@
         <v>-2868257.869386923</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I582" t="n">
         <v>274</v>
@@ -20200,7 +20500,7 @@
         <v>-2868256.769586923</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I583" t="n">
         <v>269</v>
@@ -20239,7 +20539,7 @@
         <v>-2868259.210586923</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I584" t="n">
         <v>277</v>
@@ -20278,7 +20578,7 @@
         <v>-2868257.728886923</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I585" t="n">
         <v>271</v>
@@ -20317,7 +20617,7 @@
         <v>-2868259.068886923</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I586" t="n">
         <v>274</v>
@@ -20356,9 +20656,11 @@
         <v>-2868208.774586923</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>272</v>
+      </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
@@ -20393,9 +20695,11 @@
         <v>-2868208.774586923</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>273</v>
+      </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
@@ -20430,9 +20734,11 @@
         <v>-2870790.499886923</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>273</v>
+      </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
@@ -20467,9 +20773,11 @@
         <v>-2870788.952186923</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>271</v>
+      </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
@@ -20504,7 +20812,7 @@
         <v>-2870788.952186923</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I591" t="n">
         <v>272</v>
@@ -20543,9 +20851,11 @@
         <v>-2870883.952186923</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>272</v>
+      </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
@@ -20580,7 +20890,7 @@
         <v>-2870882.942386923</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I593" t="n">
         <v>270</v>
@@ -20619,7 +20929,7 @@
         <v>-2870882.942386923</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I594" t="n">
         <v>271</v>
@@ -20636,6 +20946,6 @@
       <c r="M594" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-11 BackTest TRUE.xlsx
+++ b/BackTest/2019-10-11 BackTest TRUE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-27642.24102816901</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-30445.42882816901</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-30342.53652816901</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-31120.25272816901</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-29841.13942816901</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-30095.25472816901</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-30095.25472816901</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-30095.25472816901</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-30079.06722816901</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-30808.10662816901</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-30808.10662816901</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-30808.10662816901</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-30342.16382816901</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-30343.16382816901</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-30314.96842816901</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-30314.96842816901</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-30318.18002816901</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-30318.18002816901</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-29621.34442816901</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-28321.34442816901</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-28321.34442816901</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-28321.34442816901</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-28321.34442816901</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-28939.00542816901</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-34100.69022816901</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-33235.69022816901</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-42061.66482816901</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-45514.56222816901</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-45374.06142816901</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-50026.694628169</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-50025.594828169</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-57296.201628169</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-57296.201628169</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-57296.201628169</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-57296.201628169</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-57297.201628169</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-57298.201628169</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-58888.426428169</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-58888.426428169</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-59073.426328169</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-59073.426328169</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-59073.426328169</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-59073.426328169</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-59073.426328169</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-59073.426328169</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-53153.926628169</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-53153.926628169</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-53079.210128169</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-59720.523228169</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-60988.66272816899</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-60986.41592816899</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-61031.84772816899</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-61033.02952816899</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-62526.72542816899</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-64808.74172816899</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-92741.314628169</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-92824.44592816899</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-83849.799928169</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-83849.799928169</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-83848.457428169</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-84093.177728169</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-84090.511128169</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-84389.11602816901</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-85624.83572816901</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-85630.50262816901</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-85441.79012816901</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-85775.48312816901</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-86467.36052816901</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-86467.36052816901</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-86467.36052816901</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-86467.36052816901</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-86397.64192816902</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-86393.64192816902</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-86397.12872816902</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-86399.31052816902</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-86424.59872816902</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-86422.59872816902</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-83088.8310722951</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-83088.8310722951</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-74874.7453722951</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-74844.7453722951</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-72648.88177229511</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-66160.81410223861</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-66160.81410223861</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-66302.0900022386</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-64436.3015722951</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-78616.38404235161</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-78657.38404235161</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-79232.00994235161</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-78805.84094235161</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-79978.40684235161</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-79893.54574235162</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-78540.93534235161</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-77720.58144235161</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-77720.58144235161</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-76491.96524235161</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-76439.63714235161</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-91759.47394235161</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-91815.66824235162</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-92404.80424235162</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-92404.80424235162</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-92635.65404235161</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-93637.51254235161</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-93637.51254235161</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-94249.33304235162</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-94247.09164235162</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-94247.09164235162</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-94256.48744235162</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-94256.48744235162</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-96809.41903185598</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-97796.70473185598</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-97796.70473185598</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-97796.70473185598</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-119409.859031856</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-120310.265231856</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-130001.375331856</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-126375.441231856</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-126375.441231856</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-124985.746631856</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-121474.0267392089</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-121474.0267392089</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-123466.7404392089</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-123466.7404392089</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-122457.8637392089</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-122457.8637392089</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-122948.9799392089</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-128943.0926392089</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-124482.7901392089</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-128049.8920392089</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-128707.4650392089</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-128928.1753392089</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-124097.8687565341</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-124097.8687565341</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-124097.8687565341</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-126581.7878565341</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-126578.5345565341</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-133846.6865565341</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-139680.4008565341</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-137344.4008565341</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-138598.5981878774</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-138598.5981878774</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-138369.5981878774</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-134269.5981878774</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-134246.6973878774</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-134540.3993878774</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-130809.6003878774</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-130809.6003878774</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-130809.6003878774</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-131005.4500878774</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-130725.4500878774</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-128380.4767878774</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-125565.5589374426</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-125565.5589374426</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-125919.1299374426</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-122234.0357374426</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-124902.1469374426</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-131222.2212374426</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-130071.564544668</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-130251.564544668</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-129950.996444668</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-130655.996444668</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-130835.996444668</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-137305.472644668</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-140149.227944668</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-150352.643944668</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-150352.643944668</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-150809.310444668</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-171807.064844668</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-156767.192744668</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-157820.981944668</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-158324.829444668</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-173325.988444668</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-172902.988444668</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-173275.718944668</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-173544.416144668</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-173114.371844668</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-173113.105644668</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-173033.105644668</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-173034.258544668</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-173034.258544668</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-173034.258544668</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-173034.258544668</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-173135.258544668</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-172648.79613868</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-172996.35613868</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-177047.01633868</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-187824.64823868</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-187824.64823868</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-184347.07103868</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-187381.96703868</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-187380.96703868</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-190610.21643868</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-190609.21643868</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-190609.21643868</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-190609.21643868</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-206159.31853868</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-200637.22213868</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-199707.22213868</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-199527.22213868</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-194526.60733868</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-195251.09353868</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-195247.09353868</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-195247.09353868</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-194518.09353868</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-194518.09353868</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-194170.09353868</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-194176.09353868</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-195085.40053868</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-195815.40053868</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-195812.40053868</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-196315.98833868</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-196315.98833868</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-196334.36823868</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-196334.36823868</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-196334.36823868</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-271803.65713868</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-275032.34313868</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-275054.46443868</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-259053.46443868</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-259258.34483868</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-259256.24393868</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-263568.4624386801</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-263362.67263868</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -14311,17 +14311,11 @@
         <v>-3385833.536283046</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14350,17 +14344,11 @@
         <v>-3385833.536283046</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>266</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14393,11 +14381,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14430,11 +14414,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14467,11 +14447,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14500,17 +14476,11 @@
         <v>-3384390.938783046</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>266</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14539,17 +14509,11 @@
         <v>-3384390.938783046</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14578,17 +14542,11 @@
         <v>-3384514.125883046</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14617,17 +14575,11 @@
         <v>-3384514.125883046</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>266</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14656,17 +14608,11 @@
         <v>-3382526.742483046</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>266</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14695,17 +14641,11 @@
         <v>-4145727.742483046</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14734,17 +14674,11 @@
         <v>-4145727.742483046</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14777,11 +14711,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14814,11 +14744,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14851,11 +14777,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14888,11 +14810,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14921,17 +14839,11 @@
         <v>-3208870.667183046</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14960,17 +14872,11 @@
         <v>-3208870.667183046</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14999,17 +14905,11 @@
         <v>-3208870.667183046</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15038,17 +14938,11 @@
         <v>-2888011.359483046</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15077,17 +14971,11 @@
         <v>-2888011.359483046</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15116,17 +15004,11 @@
         <v>-2888011.359483046</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15155,17 +15037,11 @@
         <v>-2890005.777183046</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
-      </c>
-      <c r="I444" t="n">
-        <v>269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15194,17 +15070,11 @@
         <v>-2909080.071283046</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
-      </c>
-      <c r="I445" t="n">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15233,17 +15103,11 @@
         <v>-2892444.878483046</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
-      </c>
-      <c r="I446" t="n">
-        <v>262</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15272,17 +15136,11 @@
         <v>-2896155.671283046</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
-      </c>
-      <c r="I447" t="n">
-        <v>266</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15315,11 +15173,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15352,11 +15206,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15389,11 +15239,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15426,11 +15272,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15463,11 +15305,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15500,11 +15338,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15533,17 +15367,11 @@
         <v>-2884528.590283046</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15572,17 +15400,11 @@
         <v>-2875447.306083046</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
-      </c>
-      <c r="I455" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15615,11 +15437,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15652,11 +15470,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15689,11 +15503,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15726,11 +15536,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15763,11 +15569,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15800,11 +15602,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15837,11 +15635,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15874,11 +15668,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15911,11 +15701,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15948,11 +15734,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15985,11 +15767,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16022,11 +15800,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16059,11 +15833,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16096,11 +15866,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16133,11 +15899,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16170,11 +15932,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16207,11 +15965,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16244,11 +15998,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16281,11 +16031,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16318,11 +16064,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16355,11 +16097,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16392,11 +16130,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16429,11 +16163,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16466,11 +16196,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16499,17 +16225,11 @@
         <v>-2845269.548083045</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
-      </c>
-      <c r="I480" t="n">
-        <v>270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16542,11 +16262,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16579,11 +16295,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16616,11 +16328,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16653,11 +16361,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16690,11 +16394,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16727,11 +16427,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16764,11 +16460,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16797,13 +16489,15 @@
         <v>-2843909.679683045</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>275</v>
+      </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L488" t="n">
@@ -16912,11 +16606,9 @@
         <v>-2846977.595538519</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
-      </c>
-      <c r="I491" t="n">
-        <v>284</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
@@ -16951,11 +16643,9 @@
         <v>-2847152.455038519</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
-      </c>
-      <c r="I492" t="n">
-        <v>276</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
@@ -17029,11 +16719,9 @@
         <v>-2833643.751038519</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
-      </c>
-      <c r="I494" t="n">
-        <v>270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
@@ -17068,11 +16756,9 @@
         <v>-2838572.746038519</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
-      </c>
-      <c r="I495" t="n">
-        <v>278</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
@@ -17107,11 +16793,9 @@
         <v>-2835076.846338519</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
-      </c>
-      <c r="I496" t="n">
-        <v>273</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
@@ -17185,11 +16869,9 @@
         <v>-2835076.846338519</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
-      </c>
-      <c r="I498" t="n">
-        <v>274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
@@ -17224,11 +16906,9 @@
         <v>-2835076.846338519</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
-      </c>
-      <c r="I499" t="n">
-        <v>274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
@@ -17263,11 +16943,9 @@
         <v>-2835076.846338519</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
-      </c>
-      <c r="I500" t="n">
-        <v>274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
@@ -17341,11 +17019,9 @@
         <v>-2843910.995738519</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
-      </c>
-      <c r="I502" t="n">
-        <v>274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
@@ -17458,11 +17134,9 @@
         <v>-2843901.84323852</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
-      </c>
-      <c r="I505" t="n">
-        <v>276</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
@@ -17497,11 +17171,9 @@
         <v>-2857221.96733852</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
-      </c>
-      <c r="I506" t="n">
-        <v>276</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
@@ -17575,11 +17247,9 @@
         <v>-2857359.20253852</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
-      </c>
-      <c r="I508" t="n">
-        <v>271</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
@@ -17809,11 +17479,9 @@
         <v>-2857786.64033852</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
-      </c>
-      <c r="I514" t="n">
-        <v>275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
@@ -17965,11 +17633,9 @@
         <v>-2847403.69153852</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
-      </c>
-      <c r="I518" t="n">
-        <v>272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
@@ -20946,6 +20612,6 @@
       <c r="M594" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-11 BackTest TRUE.xlsx
+++ b/BackTest/2019-10-11 BackTest TRUE.xlsx
@@ -451,7 +451,7 @@
         <v>-27642.24102816901</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-30445.42882816901</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-30342.53652816901</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-31120.25272816901</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-29841.13942816901</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-30095.25472816901</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-30095.25472816901</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-30095.25472816901</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-30079.06722816901</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-30808.10662816901</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-30808.10662816901</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-30808.10662816901</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-30342.16382816901</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-30343.16382816901</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-30314.96842816901</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-30314.96842816901</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-30318.18002816901</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-30318.18002816901</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-29621.34442816901</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-28321.34442816901</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-28321.34442816901</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-28321.34442816901</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-28321.34442816901</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-28939.00542816901</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-32037.88882816901</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-31978.78222816901</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-32990.17562816901</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-32990.17562816901</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-32988.00322816901</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-34300.69022816901</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-34100.69022816901</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-33235.69022816901</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-42061.66482816901</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-45514.56222816901</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-45374.06142816901</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-50026.694628169</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-50025.594828169</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-57296.201628169</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-57296.201628169</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-57296.201628169</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-57296.201628169</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-57297.201628169</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-57298.201628169</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-58888.426428169</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-58888.426428169</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-59073.426328169</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-59073.426328169</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-59073.426328169</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-59073.426328169</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-59073.426328169</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-53153.926628169</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-53153.926628169</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-53079.210128169</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-53183.283528169</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-54229.454928169</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-54227.091328169</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-59720.523228169</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-83848.457428169</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-86393.64192816902</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-83088.8310722951</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-74874.7453722951</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-74844.7453722951</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-66160.81410223861</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-64436.3015722951</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-67715.52337229511</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-68011.44437229511</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-78550.70884235161</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-78616.38404235161</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-79232.00994235161</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-78805.84094235161</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-79978.40684235161</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-79893.54574235162</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-78540.93534235161</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-77720.58144235161</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-77720.58144235161</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-76491.96524235161</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-76439.63714235161</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-91759.47394235161</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-91815.66824235162</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-92404.80424235162</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-92404.80424235162</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-92635.65404235161</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-93637.51254235161</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-93637.51254235161</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-94249.33304235162</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-94247.09164235162</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-94247.09164235162</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-94256.48744235162</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-94256.48744235162</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-96809.41903185598</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-97796.70473185598</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-97796.70473185598</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-97796.70473185598</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-119409.859031856</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-120310.265231856</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-133274.7143878774</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-131714.7143878774</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-131985.4383878774</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-130809.6003878774</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-130809.6003878774</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-130809.6003878774</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-131005.4500878774</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-130725.4500878774</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-129672.3080878774</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-130020.1500878774</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-130020.1500878774</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-130020.1500878774</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-127005.7288878774</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-127306.7288878774</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-126773.7113878774</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-125019.0106878774</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-125029.0106878774</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-130281.6825878774</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-131128.1360878774</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-131128.1360878774</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-129986.1360878774</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-129986.1360878774</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-129986.1360878774</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-128620.1360878774</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-128912.1087878774</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-128172.1087878774</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-128380.4767878774</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-128181.1069878774</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-125565.5589374426</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-122234.0357374426</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-130990.2212374426</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-131222.2212374426</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-130071.564544668</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-130251.564544668</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-129950.996444668</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-130655.996444668</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-130835.996444668</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-137305.472644668</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-173254.718944668</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-173544.416144668</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-173114.371844668</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-173113.105644668</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-172548.105644668</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-173033.105644668</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-173033.105644668</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-173381.665644668</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-173034.258544668</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-173034.258544668</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-173034.258544668</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-173034.258544668</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-173135.258544668</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-172648.79613868</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-172996.35613868</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-172993.35613868</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-178314.03993868</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-177784.01633868</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-176440.01633868</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-176440.01633868</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-176440.01633868</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-186441.01633868</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-186453.01633868</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-186450.01633868</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-188003.64823868</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-187824.64823868</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-187824.64823868</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-184344.07103868</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-184347.07103868</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-187381.96703868</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-187380.96703868</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-189417.06743868</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-190610.21643868</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-190609.21643868</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-190609.21643868</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-190609.21643868</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-191738.56963868</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-191738.56963868</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-200638.22213868</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-199709.22213868</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-199709.22213868</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-199709.22213868</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-199528.22213868</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-199719.25633868</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-197091.49523868</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-197091.49523868</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-197436.60733868</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-194526.60733868</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-194527.60733868</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-194527.60733868</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-195251.09353868</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-195247.09353868</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-195247.09353868</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-194518.09353868</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-194518.09353868</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-194170.09353868</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-194176.09353868</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-195085.40053868</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-195815.40053868</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-195812.40053868</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-196315.98833868</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-196315.98833868</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-196334.36823868</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-196334.36823868</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-196334.36823868</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-196360.08173868</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-196360.08173868</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-196360.08173868</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-196360.08173868</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-204056.48663868</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-204054.48663868</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-207447.53773868</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-208341.89683868</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-208341.89683868</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-218256.39113868</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-218155.39113868</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-268352.83063868</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-277652.28543868</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-277651.28543868</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-277804.60123868</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-278243.60843868</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-278243.60843868</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-284248.24123868</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-273871.78603868</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-271803.65713868</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-270736.40953868</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-270916.40953868</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-270991.35923868</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-274080.69183868</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-274079.69183868</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-275032.34313868</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-275054.46443868</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-259053.46443868</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-259258.34483868</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-259256.24393868</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-263568.4624386801</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-263362.67263868</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -15631,11 +15631,17 @@
         <v>-2878753.819683046</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>266</v>
+      </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15668,7 +15674,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15701,7 +15711,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15730,11 +15744,17 @@
         <v>-2842765.804983046</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>268</v>
+      </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15763,11 +15783,17 @@
         <v>-2839523.047983046</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>269</v>
+      </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15800,7 +15826,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15833,7 +15863,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15866,7 +15900,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15899,7 +15937,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15932,7 +15974,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -15965,7 +16011,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -15998,7 +16048,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16031,7 +16085,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16064,7 +16122,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16097,7 +16159,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16130,7 +16196,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16163,7 +16233,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16196,7 +16270,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16225,11 +16303,17 @@
         <v>-2845269.548083045</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>270</v>
+      </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16258,11 +16342,17 @@
         <v>-2845269.548083045</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>270</v>
+      </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16291,11 +16381,17 @@
         <v>-2845269.548083045</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>270</v>
+      </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16324,11 +16420,17 @@
         <v>-2845207.548083045</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>270</v>
+      </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16357,11 +16459,17 @@
         <v>-2841733.856983045</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>273</v>
+      </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16394,7 +16502,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16427,7 +16539,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16460,7 +16576,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16489,15 +16609,13 @@
         <v>-2843909.679683045</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
-      </c>
-      <c r="I488" t="n">
-        <v>275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L488" t="n">
@@ -16680,11 +16798,9 @@
         <v>-2847283.667638519</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
-      </c>
-      <c r="I493" t="n">
-        <v>272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
@@ -16830,11 +16946,9 @@
         <v>-2835076.846338519</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
-      </c>
-      <c r="I497" t="n">
-        <v>274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
@@ -16980,11 +17094,9 @@
         <v>-2835076.846338519</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
-      </c>
-      <c r="I501" t="n">
-        <v>274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
@@ -17208,11 +17320,9 @@
         <v>-2857285.20253852</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
-      </c>
-      <c r="I507" t="n">
-        <v>273</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
@@ -17479,9 +17589,11 @@
         <v>-2857786.64033852</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>275</v>
+      </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
@@ -17633,9 +17745,11 @@
         <v>-2847403.69153852</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>272</v>
+      </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
@@ -17787,11 +17901,9 @@
         <v>-2853075.32233852</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
-      </c>
-      <c r="I522" t="n">
-        <v>273</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
@@ -17826,11 +17938,9 @@
         <v>-2870210.261338519</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
-      </c>
-      <c r="I523" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
@@ -19659,11 +19769,9 @@
         <v>-2863910.728086923</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
-      </c>
-      <c r="I570" t="n">
-        <v>278</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
@@ -19698,11 +19806,9 @@
         <v>-2865590.862586923</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
-      </c>
-      <c r="I571" t="n">
-        <v>275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
@@ -19737,11 +19843,9 @@
         <v>-2865590.862586923</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
-      </c>
-      <c r="I572" t="n">
-        <v>274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
@@ -19776,11 +19880,9 @@
         <v>-2865399.862586923</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
-      </c>
-      <c r="I573" t="n">
-        <v>274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
@@ -19815,11 +19917,9 @@
         <v>-2866829.658786923</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
-      </c>
-      <c r="I574" t="n">
-        <v>275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
@@ -19932,11 +20032,9 @@
         <v>-2866798.865486923</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
-      </c>
-      <c r="I577" t="n">
-        <v>275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
@@ -20049,11 +20147,9 @@
         <v>-2866831.801186923</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
-      </c>
-      <c r="I580" t="n">
-        <v>275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
@@ -20205,11 +20301,9 @@
         <v>-2868259.210586923</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
-      </c>
-      <c r="I584" t="n">
-        <v>277</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
@@ -20244,11 +20338,9 @@
         <v>-2868257.728886923</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
-      </c>
-      <c r="I585" t="n">
-        <v>271</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
@@ -20283,11 +20375,9 @@
         <v>-2868259.068886923</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
-      </c>
-      <c r="I586" t="n">
-        <v>274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
@@ -20322,11 +20412,9 @@
         <v>-2868208.774586923</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
-      </c>
-      <c r="I587" t="n">
-        <v>272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
@@ -20361,11 +20449,9 @@
         <v>-2868208.774586923</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
-      </c>
-      <c r="I588" t="n">
-        <v>273</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
@@ -20400,11 +20486,9 @@
         <v>-2870790.499886923</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
-      </c>
-      <c r="I589" t="n">
-        <v>273</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
@@ -20439,11 +20523,9 @@
         <v>-2870788.952186923</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
-      </c>
-      <c r="I590" t="n">
-        <v>271</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
@@ -20478,11 +20560,9 @@
         <v>-2870788.952186923</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
-      </c>
-      <c r="I591" t="n">
-        <v>272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
@@ -20517,11 +20597,9 @@
         <v>-2870883.952186923</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
-      </c>
-      <c r="I592" t="n">
-        <v>272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
@@ -20556,11 +20634,9 @@
         <v>-2870882.942386923</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
-      </c>
-      <c r="I593" t="n">
-        <v>270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
@@ -20595,11 +20671,9 @@
         <v>-2870882.942386923</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
-      </c>
-      <c r="I594" t="n">
-        <v>271</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
